--- a/fuentes/contenidos/grado08/guion03/Escaleta_LE_ 08_03_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion03/Escaleta_LE_ 08_03_CO.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AULA PLANETA\PROCESO JUNIO 2015\GRADO OCTAVO\LE_08_03_CO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luis\Documents\GitHub\Lenguaje\fuentes\contenidos\grado08\guion03\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja2!$A$1:$U$2</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -1360,18 +1360,36 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1425,24 +1443,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1751,8 +1751,8 @@
   <dimension ref="A1:U255"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O15" sqref="O15"/>
+      <pane ySplit="2" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1780,94 +1780,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="6" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="63" t="s">
+      <c r="B1" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="79" t="s">
+      <c r="C1" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="77" t="s">
+      <c r="D1" s="83" t="s">
         <v>111</v>
       </c>
-      <c r="E1" s="75" t="s">
+      <c r="E1" s="81" t="s">
         <v>112</v>
       </c>
-      <c r="F1" s="59" t="s">
+      <c r="F1" s="67" t="s">
         <v>282</v>
       </c>
-      <c r="G1" s="67" t="s">
+      <c r="G1" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="59" t="s">
+      <c r="H1" s="67" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="59" t="s">
+      <c r="I1" s="67" t="s">
         <v>108</v>
       </c>
-      <c r="J1" s="71" t="s">
+      <c r="J1" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="69" t="s">
+      <c r="K1" s="75" t="s">
         <v>109</v>
       </c>
-      <c r="L1" s="67" t="s">
+      <c r="L1" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="73" t="s">
+      <c r="M1" s="79" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="73"/>
-      <c r="O1" s="61" t="s">
+      <c r="N1" s="79"/>
+      <c r="O1" s="59" t="s">
         <v>110</v>
       </c>
-      <c r="P1" s="61" t="s">
+      <c r="P1" s="59" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="81" t="s">
+      <c r="Q1" s="61" t="s">
         <v>86</v>
       </c>
-      <c r="R1" s="85" t="s">
+      <c r="R1" s="65" t="s">
         <v>87</v>
       </c>
-      <c r="S1" s="81" t="s">
+      <c r="S1" s="61" t="s">
         <v>88</v>
       </c>
-      <c r="T1" s="83" t="s">
+      <c r="T1" s="63" t="s">
         <v>89</v>
       </c>
-      <c r="U1" s="81" t="s">
+      <c r="U1" s="61" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="6" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="66"/>
-      <c r="B2" s="64"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="68"/>
+      <c r="A2" s="72"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="76"/>
+      <c r="L2" s="74"/>
       <c r="M2" s="7" t="s">
         <v>91</v>
       </c>
       <c r="N2" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="O2" s="62"/>
-      <c r="P2" s="62"/>
-      <c r="Q2" s="82"/>
-      <c r="R2" s="86"/>
-      <c r="S2" s="82"/>
-      <c r="T2" s="84"/>
-      <c r="U2" s="82"/>
+      <c r="O2" s="60"/>
+      <c r="P2" s="60"/>
+      <c r="Q2" s="62"/>
+      <c r="R2" s="66"/>
+      <c r="S2" s="62"/>
+      <c r="T2" s="64"/>
+      <c r="U2" s="62"/>
     </row>
     <row r="3" spans="1:21" ht="75.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
@@ -2926,7 +2926,7 @@
         <v>214</v>
       </c>
       <c r="K20" s="44" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L20" s="45" t="s">
         <v>8</v>
@@ -3406,7 +3406,7 @@
         <v>226</v>
       </c>
       <c r="K28" s="44" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L28" s="45" t="s">
         <v>8</v>
@@ -4605,12 +4605,6 @@
     <filterColumn colId="12" showButton="0"/>
   </autoFilter>
   <mergeCells count="20">
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -4625,6 +4619,12 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/fuentes/contenidos/grado08/guion03/Escaleta_LE_ 08_03_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion03/Escaleta_LE_ 08_03_CO.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luis\Documents\GitHub\Lenguaje\fuentes\contenidos\grado08\guion03\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luz Amparo\Documents\GitHub\Lenguaje\fuentes\contenidos\grado08\guion03\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -884,9 +884,6 @@
     <t>Actividad para determinar a partir de un texto prescriptivo las características y la estructura</t>
   </si>
   <si>
-    <t>Se parte del título: Los grafemas c, cc y z y tres fotografías de imágenes que representen tres palabras con el uso de dichos grafemas. Internamente se elijan preguntas y se dan a conocer las reglas principales para le uso de dichos grafemas.</t>
-  </si>
-  <si>
     <t>Seis preguntas que guíen la interpretación y el análisis del uso de los grafemas c,cc y z.</t>
   </si>
   <si>
@@ -966,6 +963,9 @@
   </si>
   <si>
     <t xml:space="preserve">Fragmentos literarios del Romanticismo y del costumbrismo que evidencien o describan los contextos social, histórico, político y cultural.                                                                       DBA: Identifica el contexto social, histórico, político y cultural de las obras, para ampliar el análisis y la evaluación del texto. </t>
+  </si>
+  <si>
+    <t>Se parte del título: Los grafemas c, cc y z y tres fotografías de imágenes que representen tres palabras con el uso de dichos grafemas. Internamente se  exponen preguntas y se dan a conocer las reglas principales para el uso de dichos grafemas.</t>
   </si>
 </sst>
 </file>
@@ -1360,12 +1360,72 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1383,66 +1443,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1751,8 +1751,8 @@
   <dimension ref="A1:U255"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K28" sqref="K28"/>
+      <pane ySplit="2" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1780,94 +1780,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="6" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="69" t="s">
+      <c r="B1" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="85" t="s">
+      <c r="C1" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="83" t="s">
+      <c r="D1" s="77" t="s">
         <v>111</v>
       </c>
-      <c r="E1" s="81" t="s">
+      <c r="E1" s="75" t="s">
         <v>112</v>
       </c>
-      <c r="F1" s="67" t="s">
+      <c r="F1" s="59" t="s">
         <v>282</v>
       </c>
-      <c r="G1" s="73" t="s">
+      <c r="G1" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="67" t="s">
+      <c r="H1" s="59" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="67" t="s">
+      <c r="I1" s="59" t="s">
         <v>108</v>
       </c>
-      <c r="J1" s="77" t="s">
+      <c r="J1" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="75" t="s">
+      <c r="K1" s="69" t="s">
         <v>109</v>
       </c>
-      <c r="L1" s="73" t="s">
+      <c r="L1" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="79" t="s">
+      <c r="M1" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="79"/>
-      <c r="O1" s="59" t="s">
+      <c r="N1" s="73"/>
+      <c r="O1" s="61" t="s">
         <v>110</v>
       </c>
-      <c r="P1" s="59" t="s">
+      <c r="P1" s="61" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="61" t="s">
+      <c r="Q1" s="81" t="s">
         <v>86</v>
       </c>
-      <c r="R1" s="65" t="s">
+      <c r="R1" s="85" t="s">
         <v>87</v>
       </c>
-      <c r="S1" s="61" t="s">
+      <c r="S1" s="81" t="s">
         <v>88</v>
       </c>
-      <c r="T1" s="63" t="s">
+      <c r="T1" s="83" t="s">
         <v>89</v>
       </c>
-      <c r="U1" s="61" t="s">
+      <c r="U1" s="81" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="6" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="72"/>
-      <c r="B2" s="70"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="78"/>
-      <c r="K2" s="76"/>
-      <c r="L2" s="74"/>
+      <c r="A2" s="66"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="68"/>
       <c r="M2" s="7" t="s">
         <v>91</v>
       </c>
       <c r="N2" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="O2" s="60"/>
-      <c r="P2" s="60"/>
-      <c r="Q2" s="62"/>
-      <c r="R2" s="66"/>
-      <c r="S2" s="62"/>
-      <c r="T2" s="64"/>
-      <c r="U2" s="62"/>
+      <c r="O2" s="62"/>
+      <c r="P2" s="62"/>
+      <c r="Q2" s="82"/>
+      <c r="R2" s="86"/>
+      <c r="S2" s="82"/>
+      <c r="T2" s="84"/>
+      <c r="U2" s="82"/>
     </row>
     <row r="3" spans="1:21" ht="75.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
@@ -1894,7 +1894,7 @@
         <v>20</v>
       </c>
       <c r="J3" s="23" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="K3" s="42" t="s">
         <v>20</v>
@@ -1907,7 +1907,7 @@
         <v>36</v>
       </c>
       <c r="O3" s="22" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="P3" s="34" t="s">
         <v>19</v>
@@ -1966,7 +1966,7 @@
         <v>43</v>
       </c>
       <c r="O4" s="24" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="P4" s="25" t="s">
         <v>19</v>
@@ -2012,7 +2012,7 @@
         <v>20</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="K5" s="44" t="s">
         <v>20</v>
@@ -2025,7 +2025,7 @@
         <v>27</v>
       </c>
       <c r="O5" s="24" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="P5" s="25" t="s">
         <v>19</v>
@@ -2084,7 +2084,7 @@
         <v>30</v>
       </c>
       <c r="O6" s="24" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="P6" s="25" t="s">
         <v>19</v>
@@ -2143,7 +2143,7 @@
         <v>36</v>
       </c>
       <c r="O7" s="24" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="P7" s="25" t="s">
         <v>19</v>
@@ -2202,7 +2202,7 @@
         <v>52</v>
       </c>
       <c r="O8" s="24" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="P8" s="25" t="s">
         <v>19</v>
@@ -2243,7 +2243,7 @@
         <v>124</v>
       </c>
       <c r="G9" s="21" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H9" s="25">
         <v>7</v>
@@ -2265,7 +2265,7 @@
       </c>
       <c r="N9" s="57"/>
       <c r="O9" s="24" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="P9" s="25" t="s">
         <v>19</v>
@@ -2328,7 +2328,7 @@
         <v>46</v>
       </c>
       <c r="O10" s="24" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="P10" s="25" t="s">
         <v>19</v>
@@ -2391,7 +2391,7 @@
         <v>28</v>
       </c>
       <c r="O11" s="24" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="P11" s="25" t="s">
         <v>20</v>
@@ -2432,7 +2432,7 @@
         <v>127</v>
       </c>
       <c r="G12" s="21" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H12" s="25">
         <v>10</v>
@@ -2454,7 +2454,7 @@
       </c>
       <c r="N12" s="57"/>
       <c r="O12" s="24" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="P12" s="25" t="s">
         <v>19</v>
@@ -2517,7 +2517,7 @@
         <v>31</v>
       </c>
       <c r="O13" s="24" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="P13" s="25" t="s">
         <v>19</v>
@@ -2578,7 +2578,7 @@
       </c>
       <c r="N14" s="57"/>
       <c r="O14" s="24" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="P14" s="25" t="s">
         <v>19</v>
@@ -2757,7 +2757,7 @@
         <v>27</v>
       </c>
       <c r="O17" s="24" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="P17" s="25" t="s">
         <v>19</v>
@@ -2936,7 +2936,7 @@
         <v>52</v>
       </c>
       <c r="O20" s="24" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="P20" s="25" t="s">
         <v>19</v>
@@ -2973,7 +2973,7 @@
       <c r="E21" s="13"/>
       <c r="F21" s="9"/>
       <c r="G21" s="21" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H21" s="25">
         <v>19</v>
@@ -2982,7 +2982,7 @@
         <v>19</v>
       </c>
       <c r="J21" s="10" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="K21" s="44" t="s">
         <v>20</v>
@@ -2995,7 +2995,7 @@
       </c>
       <c r="N21" s="57"/>
       <c r="O21" s="24" t="s">
-        <v>286</v>
+        <v>313</v>
       </c>
       <c r="P21" s="25" t="s">
         <v>19</v>
@@ -3043,7 +3043,7 @@
         <v>20</v>
       </c>
       <c r="J22" s="10" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="K22" s="44" t="s">
         <v>20</v>
@@ -3416,7 +3416,7 @@
         <v>52</v>
       </c>
       <c r="O28" s="24" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="P28" s="25" t="s">
         <v>19</v>
@@ -3512,11 +3512,11 @@
         <v>141</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F30" s="9"/>
       <c r="G30" s="21" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H30" s="25">
         <v>28</v>
@@ -3525,7 +3525,7 @@
         <v>20</v>
       </c>
       <c r="J30" s="10" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="K30" s="44" t="s">
         <v>20</v>
@@ -3538,7 +3538,7 @@
         <v>36</v>
       </c>
       <c r="O30" s="24" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="P30" s="25" t="s">
         <v>19</v>
@@ -3902,7 +3902,7 @@
       </c>
       <c r="N36" s="57"/>
       <c r="O36" s="24" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="P36" s="25" t="s">
         <v>19</v>
@@ -4605,6 +4605,12 @@
     <filterColumn colId="12" showButton="0"/>
   </autoFilter>
   <mergeCells count="20">
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -4619,12 +4625,6 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/fuentes/contenidos/grado08/guion03/Escaleta_LE_ 08_03_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion03/Escaleta_LE_ 08_03_CO.xlsx
@@ -1,29 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luz Amparo\Documents\GitHub\Lenguaje\fuentes\contenidos\grado08\guion03\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7080"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="20430" windowHeight="7020"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
-    <sheet name="DATOS" sheetId="1" state="hidden" r:id="rId2"/>
+    <sheet name="DATOS" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja2!$A$1:$U$2</definedName>
   </definedNames>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="144525" iterateCount="2" iterateDelta="10"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="315">
   <si>
     <t>Asignatura</t>
   </si>
@@ -966,6 +961,9 @@
   </si>
   <si>
     <t>Se parte del título: Los grafemas c, cc y z y tres fotografías de imágenes que representen tres palabras con el uso de dichos grafemas. Internamente se  exponen preguntas y se dan a conocer las reglas principales para el uso de dichos grafemas.</t>
+  </si>
+  <si>
+    <t>Recurso M4A-01</t>
   </si>
 </sst>
 </file>
@@ -1504,7 +1502,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1539,7 +1537,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1750,9 +1748,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U255"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O23" sqref="O23"/>
+      <selection pane="bottomLeft" activeCell="Q260" sqref="Q260"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1770,7 +1768,7 @@
     <col min="12" max="12" width="14" style="33" customWidth="1"/>
     <col min="13" max="13" width="8.140625" style="51" customWidth="1"/>
     <col min="14" max="14" width="11" style="51" customWidth="1"/>
-    <col min="15" max="15" width="37.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.5703125" style="1" customWidth="1"/>
     <col min="16" max="16" width="16.5703125" style="36" customWidth="1"/>
     <col min="17" max="17" width="20.42578125" style="1" customWidth="1"/>
     <col min="18" max="18" width="23" bestFit="1" customWidth="1"/>
@@ -1869,7 +1867,7 @@
       <c r="T2" s="84"/>
       <c r="U2" s="82"/>
     </row>
-    <row r="3" spans="1:21" ht="75.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" ht="165.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
         <v>16</v>
       </c>
@@ -1928,7 +1926,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" ht="135" x14ac:dyDescent="0.25">
       <c r="A4" s="31" t="s">
         <v>16</v>
       </c>
@@ -1987,7 +1985,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="31" t="s">
         <v>16</v>
       </c>
@@ -2046,7 +2044,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" ht="150" x14ac:dyDescent="0.25">
       <c r="A6" s="31" t="s">
         <v>16</v>
       </c>
@@ -2105,7 +2103,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" ht="87" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="31" t="s">
         <v>16</v>
       </c>
@@ -2164,7 +2162,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="120" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" ht="255" x14ac:dyDescent="0.25">
       <c r="A8" s="31" t="s">
         <v>16</v>
       </c>
@@ -2412,7 +2410,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" ht="75" x14ac:dyDescent="0.25">
       <c r="A12" s="31" t="s">
         <v>16</v>
       </c>
@@ -2514,7 +2512,7 @@
       </c>
       <c r="M13" s="49"/>
       <c r="N13" s="57" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O13" s="24" t="s">
         <v>307</v>
@@ -2538,7 +2536,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="120" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" ht="255" x14ac:dyDescent="0.25">
       <c r="A14" s="31" t="s">
         <v>16</v>
       </c>
@@ -2599,7 +2597,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="31" t="s">
         <v>16</v>
       </c>
@@ -2717,7 +2715,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="31" t="s">
         <v>16</v>
       </c>
@@ -2778,7 +2776,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" ht="90" x14ac:dyDescent="0.25">
       <c r="A18" s="31" t="s">
         <v>16</v>
       </c>
@@ -2837,7 +2835,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="19" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="31" t="s">
         <v>16</v>
       </c>
@@ -3016,7 +3014,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="22" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" ht="105" x14ac:dyDescent="0.25">
       <c r="A22" s="31" t="s">
         <v>16</v>
       </c>
@@ -3077,7 +3075,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="31" t="s">
         <v>16</v>
       </c>
@@ -3138,7 +3136,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="24" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" ht="90" x14ac:dyDescent="0.25">
       <c r="A24" s="31" t="s">
         <v>16</v>
       </c>
@@ -3199,7 +3197,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="25" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="31" t="s">
         <v>16</v>
       </c>
@@ -3258,7 +3256,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="26" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" ht="90" x14ac:dyDescent="0.25">
       <c r="A26" s="31" t="s">
         <v>16</v>
       </c>
@@ -3317,7 +3315,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="27" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" ht="121.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="31" t="s">
         <v>16</v>
       </c>
@@ -3376,7 +3374,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="28" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" ht="75" x14ac:dyDescent="0.25">
       <c r="A28" s="31" t="s">
         <v>16</v>
       </c>
@@ -3437,7 +3435,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="29" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" ht="111" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="31" t="s">
         <v>16</v>
       </c>
@@ -3559,7 +3557,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="31" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="31" t="s">
         <v>16</v>
       </c>
@@ -3620,7 +3618,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="32" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" ht="105" x14ac:dyDescent="0.25">
       <c r="A32" s="31" t="s">
         <v>16</v>
       </c>
@@ -3681,7 +3679,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="33" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" ht="117.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="31" t="s">
         <v>16</v>
       </c>
@@ -3742,7 +3740,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="34" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" ht="105" x14ac:dyDescent="0.25">
       <c r="A34" s="31" t="s">
         <v>16</v>
       </c>
@@ -3803,7 +3801,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="35" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="31" t="s">
         <v>16</v>
       </c>
@@ -3982,7 +3980,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="38" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A38" s="31" t="s">
         <v>16</v>
       </c>
@@ -4041,7 +4039,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="39" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="31" t="s">
         <v>16</v>
       </c>
@@ -4173,16 +4171,28 @@
       </c>
       <c r="L41" s="47"/>
       <c r="M41" s="50"/>
-      <c r="N41" s="50"/>
+      <c r="N41" s="50" t="s">
+        <v>103</v>
+      </c>
       <c r="O41" s="4"/>
       <c r="P41" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="Q41" s="52"/>
-      <c r="R41" s="53"/>
-      <c r="S41" s="52"/>
-      <c r="T41" s="55"/>
-      <c r="U41" s="52"/>
+      <c r="Q41" s="52">
+        <v>6</v>
+      </c>
+      <c r="R41" s="53" t="s">
+        <v>170</v>
+      </c>
+      <c r="S41" s="52" t="s">
+        <v>171</v>
+      </c>
+      <c r="T41" s="55" t="s">
+        <v>314</v>
+      </c>
+      <c r="U41" s="52" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="42" spans="1:21" ht="144.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="31" t="s">

--- a/fuentes/contenidos/grado08/guion03/Escaleta_LE_ 08_03_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion03/Escaleta_LE_ 08_03_CO.xlsx
@@ -1,24 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AULA PLANETA\PROCESO JUNIO 2015\GRADO OCTAVO\LE_08_03_CO\PROCESO Y CONTROL\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="20430" windowHeight="7020"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7080"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
-    <sheet name="DATOS" sheetId="1" r:id="rId2"/>
+    <sheet name="DATOS" sheetId="1" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja2!$A$1:$U$2</definedName>
   </definedNames>
-  <calcPr calcId="144525" iterateCount="2" iterateDelta="10"/>
+  <calcPr calcId="152511" iterateCount="2" iterateDelta="10" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="318">
   <si>
     <t>Asignatura</t>
   </si>
@@ -477,9 +482,6 @@
     <t>Evaluación</t>
   </si>
   <si>
-    <t>Secuencia de imágenes que presenta la noción de oración pasiva en contraste con la activa</t>
-  </si>
-  <si>
     <t>2º ESO</t>
   </si>
   <si>
@@ -498,18 +500,9 @@
     <t>Refuerza tu aprendizaje: La oración activa y la oración pasiva</t>
   </si>
   <si>
-    <t>Actividades sobre La oración activa y la oración pasiva</t>
-  </si>
-  <si>
     <t>Transforma oraciones activas en pasivas y viceversa</t>
   </si>
   <si>
-    <t>Actividad que trata el cambio de oración activa a pasiva y de pasiva a activa</t>
-  </si>
-  <si>
-    <t>Actividad para distinguir la escritura de las grafía "c", "cc" y "z"</t>
-  </si>
-  <si>
     <t>Ortografía: escribe palabras con las grafías correctas</t>
   </si>
   <si>
@@ -522,15 +515,9 @@
     <t>Ortografía: completa el texto con la palabra correcta</t>
   </si>
   <si>
-    <t>Actividad para reflexionar sobre la escritura "c", "cc" y "z"</t>
-  </si>
-  <si>
     <t>Ortografía: agrupa palabras según su escritura</t>
   </si>
   <si>
-    <t>Actividad para distinguir palabras que se escriben con "c", "cc" y "z"</t>
-  </si>
-  <si>
     <t>RM</t>
   </si>
   <si>
@@ -579,63 +566,18 @@
     <t>RF_01_01_CO</t>
   </si>
   <si>
-    <t>Lectura-literatura: Reconoce las características del Romanticismo en Colombia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lectura-gramática: Identifica las oraciones activas y pasivas </t>
-  </si>
-  <si>
-    <t>Actividad que permite identificar y diferenciar las oraciones activas de las pasivas</t>
-  </si>
-  <si>
-    <t>Lectura-ortografía: Selecciona las palabras con c, cc o z</t>
-  </si>
-  <si>
-    <t>Lectura-comprensión textual: Determinar las características de un texto prescriptivo</t>
-  </si>
-  <si>
-    <t>Lectura-producción textual: Inventa un texto prescriptivo</t>
-  </si>
-  <si>
-    <t>Actividad que permite inventar un texto prescriptivo a partir de situaciones cotidianas</t>
-  </si>
-  <si>
-    <t>Refuerza tu aprendizaje: Antología Literaria del Romanticismo y Costumbrismo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Interactivo para determinar las características y el desarrollo </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Interactivo para caracterizar el Realismo y el Costumbrismo en Colombia </t>
-  </si>
-  <si>
-    <t>Interactivo para comparar los textos literarios  desarrollados durante  el Romanticismo y Costumbrismo</t>
-  </si>
-  <si>
-    <t>Refuerza tu aprendizaje: Distingue las características del Romanticismo y Costumbrismo</t>
-  </si>
-  <si>
-    <t>Actividad para distinguir las características y el desarrollo literario del Romanticismo y Costumbrismo en Colombia</t>
-  </si>
-  <si>
     <t xml:space="preserve">Realizar cuatro preguntas relacionados con el Romanticismo y cuatro con el Costumbrismo, a partir de elementos literarios, culturales, sociales e históricos. </t>
   </si>
   <si>
     <t>Banco de Actividades</t>
   </si>
   <si>
-    <t xml:space="preserve">Literatura: El Romanticismo y el Costumbrismo en Colombia </t>
-  </si>
-  <si>
     <t>Interactivo para profundizar en el desarrollo del Romanticismo y el Costumbrismo en Colombia</t>
   </si>
   <si>
     <t xml:space="preserve">Ordena la secuencia de un texto narrativo </t>
   </si>
   <si>
-    <t xml:space="preserve">Actividad para organizar un texto narrativo relacionado con el Romanticismo en Colombia </t>
-  </si>
-  <si>
     <t xml:space="preserve">Completa el poema </t>
   </si>
   <si>
@@ -645,9 +587,6 @@
     <t>Relaciona fragmentos de obras literarias</t>
   </si>
   <si>
-    <t>Actividad para relacionar textos literarios del Realismo y del Costumbrismo</t>
-  </si>
-  <si>
     <t>Las oraciones activas y las oraciones pasivas</t>
   </si>
   <si>
@@ -660,60 +599,18 @@
     <t xml:space="preserve">Revisar el uso del vocabulario y el lenguaje. Cambiar las palabras en caso de no ser pertinentes. </t>
   </si>
   <si>
-    <t>Refuerza tu aprendizaje: Analiza las oraciones activas y las pasivas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Actividad para analizar las oraciones activas y las pasivas a partir de su estructura </t>
-  </si>
-  <si>
     <t>Crucigrama que incluye seis palabras horizontales y seis palabras verticales que se escriban con el grafema z.</t>
   </si>
   <si>
-    <t>Identifica las palabras que se escriben con cc</t>
-  </si>
-  <si>
     <t>Seis audios, cada uno con oraciones en las que se encuentren mínimo dos palabras con cc . Se recomienda utilizar fragmentos literarios relacionados con el Romanticismo y Costumbrismo.</t>
   </si>
   <si>
-    <t>Actividad para seleccionar y escribir las palabras que se escriben con cc</t>
-  </si>
-  <si>
-    <t>Completa el texto con las palabas que contengan el grafema c</t>
-  </si>
-  <si>
     <t xml:space="preserve">Se seleccionara un fragmento literario que contengan palabras con el grafema c, con el fin de ubicarlas en el lugar adecuado. </t>
   </si>
   <si>
     <t>Refuerza tu aprendizaje: Agrupa palabras según su escritura</t>
   </si>
   <si>
-    <t>Refuerza tu aprendizaje: Completa el texto con la palabra correcta</t>
-  </si>
-  <si>
-    <t>Refuerza tu aprendizaje: Escribe palabras con las grafías correctas</t>
-  </si>
-  <si>
-    <t>Refuerza tu aprendizaje: Reconoce los elementos claves para comprender un texto prescriptivo</t>
-  </si>
-  <si>
-    <t>Actividad para reconstruir los elementos y la estructura de un texto prescriptivo a partir de su comprensión textual</t>
-  </si>
-  <si>
-    <t>Actividad para diferenciar el uso de los grafemas c,cc y z</t>
-  </si>
-  <si>
-    <t>Refuerza tu aprendizaje: Diferencia las palabras con los grafemas c,cc y z</t>
-  </si>
-  <si>
-    <t>Reconoce las palabras que se escriben con el grafema z</t>
-  </si>
-  <si>
-    <t>Actividad para deducir a partir de pistas las palabras que se escriben con el grafema z</t>
-  </si>
-  <si>
-    <t>Estrategias de lectura para comprender un texto prescriptivo</t>
-  </si>
-  <si>
     <t>Interactivo que expone estrategias de lectura para comprender un texto prescriptivo</t>
   </si>
   <si>
@@ -726,39 +623,24 @@
     <t>Se resaltan cinco palabras clave relacionadas con la intención del texto prescriptivo y sus respectivas descripciones.</t>
   </si>
   <si>
-    <t>Interactivo que expone la estructura de un texto prescriptivo</t>
-  </si>
-  <si>
     <t>Audio con un tipo de texto prescriptivo, para que lo estudiantes organicen las ideas principales a partir de dicho audio.</t>
   </si>
   <si>
     <t>Escribir seis preguntas clave para analizar textos  prescriptivos.</t>
   </si>
   <si>
-    <t>Actividad para interpretar y analizar la estructura de textos prescriptivos</t>
-  </si>
-  <si>
-    <t>Gramática: Analiza las oraciones activas y pasivas</t>
-  </si>
-  <si>
     <t>Actividad para diferenciar las oraciones activas de las pasivas</t>
   </si>
   <si>
     <t>Listado de oraciones activas y pasivas para relacionarlas entre sí.</t>
   </si>
   <si>
-    <t>Comprensión textual: Completa un texto prescriptivo</t>
-  </si>
-  <si>
     <t>Actividad para reconocer la estructura de un texto prescriptivo</t>
   </si>
   <si>
     <t xml:space="preserve">Se expone un texto prescriptivo para que los estudiantes lo completen. </t>
   </si>
   <si>
-    <t>Producción textual: Ordena un texto prescriptivo</t>
-  </si>
-  <si>
     <t>Actividad para completar un texto prescriptivo a partir de la comprensión textual</t>
   </si>
   <si>
@@ -768,15 +650,6 @@
     <t>El Texto prescriptivo</t>
   </si>
   <si>
-    <t>Mapa conceptual del tema: El texto prescriptivo</t>
-  </si>
-  <si>
-    <t>Actividad para evaluar los conocimientos del estudiante sobre el tema El texto prescriptivo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Actividad para repasar los conocimientos del estudiante sobre el tema La literatura colombiana del Romanticismo y el Costumbrismo </t>
-  </si>
-  <si>
     <t>Recurso M10A-01</t>
   </si>
   <si>
@@ -846,9 +719,6 @@
     <t>Recurso M12A-01</t>
   </si>
   <si>
-    <t>Recurso M101AP-01</t>
-  </si>
-  <si>
     <t>Favor remitirse al documento Instrucciones para autores sobre elaboración de recursos F.</t>
   </si>
   <si>
@@ -858,25 +728,13 @@
     <t>Organiza un texto prescriptivo</t>
   </si>
   <si>
-    <t>Actividad para organizar un texto prescriptivo a partir de instrucciones</t>
-  </si>
-  <si>
-    <t>Refuerza tu aprendizaje: Analiza textos prescriptivos</t>
-  </si>
-  <si>
     <t>Debe incluirse 10 preguntas abiertas:3 sobre literatura Del Romanticismo y del Costumbrismo; 2 sobre oraciones activas y pasivas, 3 sobre los grafemas c, cc y z , 2 sobre el texto prescriptivo.Debe marcarse en el greco Gestor de actividades como actividad didáctica.</t>
   </si>
   <si>
     <t>Subsistema (secc 3)</t>
   </si>
   <si>
-    <t xml:space="preserve">Lectura-comprensión textual: Distingue los tipos de textos de acuerdo a sus características </t>
-  </si>
-  <si>
-    <t>Actividad para distinguir los tipos de texto de acuerdo a las características de estilo</t>
-  </si>
-  <si>
-    <t>Actividad para determinar a partir de un texto prescriptivo las características y la estructura</t>
+    <t>Se parte del título: Los grafemas c, cc y z y tres fotografías de imágenes que representen tres palabras con el uso de dichos grafemas. Internamente se elijan preguntas y se dan a conocer las reglas principales para le uso de dichos grafemas.</t>
   </si>
   <si>
     <t>Seis preguntas que guíen la interpretación y el análisis del uso de los grafemas c,cc y z.</t>
@@ -888,33 +746,12 @@
     <t>Distingue las características de un texto prescriptivo</t>
   </si>
   <si>
-    <t>Actividad para reconocer y distinguir las características de un texto prescriptivo</t>
-  </si>
-  <si>
     <t>Se exponen tres tipo de textos prescriptivos con preguntas que guían a identificar las características del texto.</t>
   </si>
   <si>
-    <t>El Realismo y Costumbrismo en Colombia</t>
-  </si>
-  <si>
     <t xml:space="preserve">El arte, la cultura y la literatura en el Romanticismo </t>
   </si>
   <si>
-    <t>Los grafemas c, cc y z</t>
-  </si>
-  <si>
-    <t>Actividad para reconocer el uso del grafema c</t>
-  </si>
-  <si>
-    <t>Interactivo para diferenciar el uso de los grafemas c,cc y z</t>
-  </si>
-  <si>
-    <t>Actividad que permite seleccionar las palabras que utilizan c,cc o z</t>
-  </si>
-  <si>
-    <t>Actividad que permite reconocer las características del Romanticismo en Colombia</t>
-  </si>
-  <si>
     <t xml:space="preserve">Se sugiere citar cuatro fragmentos cortos relacionados con el desarrollo del Romanticismo en Colombia y cada uno acompañado de preguntas de comprensión o interpretación textual. </t>
   </si>
   <si>
@@ -960,10 +797,510 @@
     <t xml:space="preserve">Fragmentos literarios del Romanticismo y del costumbrismo que evidencien o describan los contextos social, histórico, político y cultural.                                                                       DBA: Identifica el contexto social, histórico, político y cultural de las obras, para ampliar el análisis y la evaluación del texto. </t>
   </si>
   <si>
-    <t>Se parte del título: Los grafemas c, cc y z y tres fotografías de imágenes que representen tres palabras con el uso de dichos grafemas. Internamente se  exponen preguntas y se dan a conocer las reglas principales para el uso de dichos grafemas.</t>
+    <t xml:space="preserve">Literatura: reconoce las características del Romanticismo </t>
+  </si>
+  <si>
+    <t>Actividad que permite identificar las características del Romanticismo en Colombia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gramática: identifica las oraciones activas y pasivas </t>
+  </si>
+  <si>
+    <t>Actividad que permite diferenciar las oraciones activas de las pasivas</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ortografía: selecciona  las palabras con </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">c, cc </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">o </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">z </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Comprensión textual: distingue las clases de textos </t>
+  </si>
+  <si>
+    <t>Comprensión textual: características de un texto prescriptivo</t>
+  </si>
+  <si>
+    <t>Producción textual: inventa un texto prescriptivo</t>
+  </si>
+  <si>
+    <t>El  Costumbrismo en Colombia</t>
+  </si>
+  <si>
+    <t>Refuerza tu aprendizaje: Antología literaria del Romanticismo y el Costumbrismo</t>
+  </si>
+  <si>
+    <t>Refuerza tu aprendizaje: El Romanticismo y el Costumbrismo</t>
+  </si>
+  <si>
+    <t>Transforma oraciones</t>
+  </si>
+  <si>
+    <t>Refuerza tu aprendizaje: Modifica  oraciones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Refuerza tu aprendizaje: Analiza  oraciones </t>
+  </si>
+  <si>
+    <r>
+      <t>Los grafemas</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> y </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>z</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Reconoce el uso del grafema</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> c</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Identifica las palabras con </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cc</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Resuelve el crucigrama </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Refuerza tu aprendizaje:  Completa el texto </t>
+  </si>
+  <si>
+    <t>Refuerza tu aprendizaje: Escribe palabras con los grafemas correctos</t>
+  </si>
+  <si>
+    <t>Refuerza tu aprendizaje: Diferencia los grafemas c, cc y z</t>
+  </si>
+  <si>
+    <t>El  texto prescriptivo</t>
+  </si>
+  <si>
+    <t>Refuerza tu aprendizaje: Los textos prescriptivos</t>
+  </si>
+  <si>
+    <t>Refuerza tu aprendizaje: Elementos de los textos prescriptivos</t>
+  </si>
+  <si>
+    <t>Literatura: el Romanticismo y el Costumbrismo</t>
+  </si>
+  <si>
+    <t>Gramática: analiza las oraciones activas y pasivas</t>
+  </si>
+  <si>
+    <t>Comprensión textual: completa un texto prescriptivo</t>
+  </si>
+  <si>
+    <t>Producción textual: ordena un texto prescriptivo</t>
+  </si>
+  <si>
+    <t>Banco de actividades: El texto prescriptivo</t>
+  </si>
+  <si>
+    <r>
+      <t>Actividad parta ejercitarse en  el uso de</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>c, cc y  z</t>
+    </r>
+  </si>
+  <si>
+    <t>Actividad para diferenciar los tipos de texto de acuerdo con las características de estilo</t>
+  </si>
+  <si>
+    <t>Actividad para determinar, a partir de un texto prescriptivo, las características y la estructura</t>
+  </si>
+  <si>
+    <t>Actividad que permite escribir un texto prescriptivo a partir de situaciones cotidianas</t>
+  </si>
+  <si>
+    <t>Interactivo para determinar las características y el desarrollo del Romanticismo</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Actividad para organizar un texto narrativo relacionado con la obra </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>María</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">de Jorge Isaacs </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Interactivo para caracterizar el Costumbrismo en Colombia </t>
+  </si>
+  <si>
+    <t>Actividad para caracterizar obras del Romanticismo y Costumbrismo</t>
+  </si>
+  <si>
+    <t>Interactivo para comparar obras del Romanticismo y el Costumbrismo</t>
+  </si>
+  <si>
+    <t>Actividad sobre el desarrollo  del Romanticismo y el Costumbrismo en Colombia</t>
+  </si>
+  <si>
+    <t>Interactivo que presenta la noción de oración pasiva en contraste con la activa</t>
+  </si>
+  <si>
+    <t>Actividad para convertir oraciones activas a pasivas y viceversa</t>
+  </si>
+  <si>
+    <t>Actividad para analizar oraciones activas y pasivas</t>
+  </si>
+  <si>
+    <t>Actividad para distinguir  las oraciones activas y las pasivas a partir de su estructura</t>
+  </si>
+  <si>
+    <r>
+      <t>Interactivo para diferenciar el uso de los grafemas</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> y</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> z</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Actividad para ubicar en un texto las palabras que contienen el grafema </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">c </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>de acuerdo al contexto</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Actividad para escribir las palabras que se escriben con </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cc</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Actividad para reconocer las palabras que se escriben con el grafema </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>z</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Actividad para distinguir palabras que se escriben con </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>c, cc o z</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Actividad para reflexionar sobre la escritura </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, cc o </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>z</t>
+    </r>
+  </si>
+  <si>
+    <t>Actividad para distinguir las escritura de las grafía c, cc y z</t>
+  </si>
+  <si>
+    <t>Actividad para distinguir el uso de los grafemas c, cc y z</t>
+  </si>
+  <si>
+    <t>Actividad para  caracterizar un texto prescriptivo</t>
+  </si>
+  <si>
+    <t>Actividad para reconstruir los elementos y la estructura de un texto prescriptivo</t>
+  </si>
+  <si>
+    <t>Interactivo para redactar un texto prescriptivo</t>
+  </si>
+  <si>
+    <t>Actividad para ordenar las instrucciones de un texto prescriptivo</t>
+  </si>
+  <si>
+    <t>Actividad para afianzar las características y los elementos clave de los textos prescriptivos</t>
+  </si>
+  <si>
+    <t>Mapa conceptual del tema El texto prescriptivo</t>
+  </si>
+  <si>
+    <t>Evalúa tus conocimientos sobre el tema El texto prescriptivo</t>
+  </si>
+  <si>
+    <t>Actividad para repasar los contenidos del tema El texto prescriptivo</t>
   </si>
   <si>
     <t>Recurso M4A-01</t>
+  </si>
+  <si>
+    <t>Recurso M101A-07</t>
   </si>
 </sst>
 </file>
@@ -1038,8 +1375,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1119,7 +1457,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -1198,11 +1536,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1331,9 +1695,6 @@
     <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1349,25 +1710,37 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1394,12 +1767,6 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1424,22 +1791,29 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1502,7 +1876,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1537,7 +1911,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1746,11 +2120,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U255"/>
+  <dimension ref="A1:U420"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q260" sqref="Q260"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O42" sqref="O42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1761,14 +2135,14 @@
     <col min="4" max="4" width="39.85546875" style="33" customWidth="1"/>
     <col min="5" max="5" width="39.28515625" customWidth="1"/>
     <col min="6" max="6" width="19.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.7109375" customWidth="1"/>
+    <col min="7" max="7" width="30.7109375" style="88" customWidth="1"/>
     <col min="8" max="9" width="12.42578125" style="36" customWidth="1"/>
-    <col min="10" max="10" width="31.7109375" customWidth="1"/>
+    <col min="10" max="10" width="30.28515625" style="89" customWidth="1"/>
     <col min="11" max="11" width="18.85546875" style="33" customWidth="1"/>
     <col min="12" max="12" width="14" style="33" customWidth="1"/>
-    <col min="13" max="13" width="8.140625" style="51" customWidth="1"/>
-    <col min="14" max="14" width="11" style="51" customWidth="1"/>
-    <col min="15" max="15" width="19.5703125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="8.140625" style="50" customWidth="1"/>
+    <col min="14" max="14" width="11" style="50" customWidth="1"/>
+    <col min="15" max="15" width="37.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="16.5703125" style="36" customWidth="1"/>
     <col min="17" max="17" width="20.42578125" style="1" customWidth="1"/>
     <col min="18" max="18" width="23" bestFit="1" customWidth="1"/>
@@ -1778,96 +2152,96 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="6" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="63" t="s">
+      <c r="B1" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="79" t="s">
+      <c r="C1" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="77" t="s">
+      <c r="D1" s="78" t="s">
         <v>111</v>
       </c>
-      <c r="E1" s="75" t="s">
+      <c r="E1" s="76" t="s">
         <v>112</v>
       </c>
-      <c r="F1" s="59" t="s">
-        <v>282</v>
-      </c>
-      <c r="G1" s="67" t="s">
+      <c r="F1" s="64" t="s">
+        <v>235</v>
+      </c>
+      <c r="G1" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="59" t="s">
+      <c r="H1" s="64" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="59" t="s">
+      <c r="I1" s="64" t="s">
         <v>108</v>
       </c>
-      <c r="J1" s="71" t="s">
+      <c r="J1" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="69" t="s">
+      <c r="K1" s="72" t="s">
         <v>109</v>
       </c>
-      <c r="L1" s="67" t="s">
+      <c r="L1" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="73" t="s">
+      <c r="M1" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="73"/>
-      <c r="O1" s="61" t="s">
+      <c r="N1" s="74"/>
+      <c r="O1" s="56" t="s">
         <v>110</v>
       </c>
-      <c r="P1" s="61" t="s">
+      <c r="P1" s="56" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="81" t="s">
+      <c r="Q1" s="58" t="s">
         <v>86</v>
       </c>
-      <c r="R1" s="85" t="s">
+      <c r="R1" s="62" t="s">
         <v>87</v>
       </c>
-      <c r="S1" s="81" t="s">
+      <c r="S1" s="58" t="s">
         <v>88</v>
       </c>
-      <c r="T1" s="83" t="s">
+      <c r="T1" s="60" t="s">
         <v>89</v>
       </c>
-      <c r="U1" s="81" t="s">
+      <c r="U1" s="58" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="6" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="66"/>
-      <c r="B2" s="64"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="68"/>
+      <c r="A2" s="69"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="83"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="71"/>
       <c r="M2" s="7" t="s">
         <v>91</v>
       </c>
       <c r="N2" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="O2" s="62"/>
-      <c r="P2" s="62"/>
-      <c r="Q2" s="82"/>
-      <c r="R2" s="86"/>
-      <c r="S2" s="82"/>
-      <c r="T2" s="84"/>
-      <c r="U2" s="82"/>
-    </row>
-    <row r="3" spans="1:21" ht="165.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="O2" s="57"/>
+      <c r="P2" s="57"/>
+      <c r="Q2" s="59"/>
+      <c r="R2" s="63"/>
+      <c r="S2" s="59"/>
+      <c r="T2" s="61"/>
+      <c r="U2" s="59"/>
+    </row>
+    <row r="3" spans="1:21" ht="75.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
         <v>16</v>
       </c>
@@ -1875,15 +2249,15 @@
         <v>121</v>
       </c>
       <c r="C3" s="30" t="s">
-        <v>248</v>
+        <v>207</v>
       </c>
       <c r="D3" s="37" t="s">
         <v>122</v>
       </c>
       <c r="E3" s="17"/>
       <c r="F3" s="18"/>
-      <c r="G3" s="21" t="s">
-        <v>186</v>
+      <c r="G3" s="85" t="s">
+        <v>257</v>
       </c>
       <c r="H3" s="38">
         <v>1</v>
@@ -1892,7 +2266,7 @@
         <v>20</v>
       </c>
       <c r="J3" s="23" t="s">
-        <v>297</v>
+        <v>258</v>
       </c>
       <c r="K3" s="42" t="s">
         <v>20</v>
@@ -1901,32 +2275,32 @@
         <v>8</v>
       </c>
       <c r="M3" s="48"/>
-      <c r="N3" s="56" t="s">
+      <c r="N3" s="48" t="s">
         <v>36</v>
       </c>
       <c r="O3" s="22" t="s">
-        <v>298</v>
+        <v>242</v>
       </c>
       <c r="P3" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="Q3" s="52">
+      <c r="Q3" s="51">
         <v>6</v>
       </c>
-      <c r="R3" s="53" t="s">
-        <v>170</v>
-      </c>
-      <c r="S3" s="54" t="s">
-        <v>171</v>
-      </c>
-      <c r="T3" s="55" t="s">
-        <v>172</v>
-      </c>
-      <c r="U3" s="54" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" ht="135" x14ac:dyDescent="0.25">
+      <c r="R3" s="52" t="s">
+        <v>164</v>
+      </c>
+      <c r="S3" s="53" t="s">
+        <v>165</v>
+      </c>
+      <c r="T3" s="54" t="s">
+        <v>166</v>
+      </c>
+      <c r="U3" s="53" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="31" t="s">
         <v>16</v>
       </c>
@@ -1934,7 +2308,7 @@
         <v>121</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>248</v>
+        <v>207</v>
       </c>
       <c r="D4" s="37" t="s">
         <v>122</v>
@@ -1942,7 +2316,7 @@
       <c r="E4" s="13"/>
       <c r="F4" s="9"/>
       <c r="G4" s="21" t="s">
-        <v>187</v>
+        <v>259</v>
       </c>
       <c r="H4" s="25">
         <v>2</v>
@@ -1951,7 +2325,7 @@
         <v>20</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>188</v>
+        <v>260</v>
       </c>
       <c r="K4" s="44" t="s">
         <v>20</v>
@@ -1960,32 +2334,32 @@
         <v>8</v>
       </c>
       <c r="M4" s="49"/>
-      <c r="N4" s="57" t="s">
+      <c r="N4" s="48" t="s">
         <v>43</v>
       </c>
       <c r="O4" s="24" t="s">
-        <v>299</v>
+        <v>243</v>
       </c>
       <c r="P4" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="Q4" s="52">
+      <c r="Q4" s="51">
         <v>6</v>
       </c>
-      <c r="R4" s="53" t="s">
-        <v>170</v>
-      </c>
-      <c r="S4" s="52" t="s">
-        <v>171</v>
-      </c>
-      <c r="T4" s="55" t="s">
-        <v>252</v>
-      </c>
-      <c r="U4" s="52" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R4" s="52" t="s">
+        <v>164</v>
+      </c>
+      <c r="S4" s="51" t="s">
+        <v>165</v>
+      </c>
+      <c r="T4" s="54" t="s">
+        <v>208</v>
+      </c>
+      <c r="U4" s="51" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="31" t="s">
         <v>16</v>
       </c>
@@ -1993,7 +2367,7 @@
         <v>121</v>
       </c>
       <c r="C5" s="30" t="s">
-        <v>248</v>
+        <v>207</v>
       </c>
       <c r="D5" s="37" t="s">
         <v>122</v>
@@ -2001,7 +2375,7 @@
       <c r="E5" s="13"/>
       <c r="F5" s="9"/>
       <c r="G5" s="21" t="s">
-        <v>189</v>
+        <v>261</v>
       </c>
       <c r="H5" s="25">
         <v>3</v>
@@ -2010,7 +2384,7 @@
         <v>20</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="K5" s="44" t="s">
         <v>20</v>
@@ -2019,32 +2393,32 @@
         <v>8</v>
       </c>
       <c r="M5" s="49"/>
-      <c r="N5" s="57" t="s">
+      <c r="N5" s="48" t="s">
         <v>27</v>
       </c>
       <c r="O5" s="24" t="s">
-        <v>300</v>
+        <v>244</v>
       </c>
       <c r="P5" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="Q5" s="52">
+      <c r="Q5" s="51">
         <v>6</v>
       </c>
-      <c r="R5" s="53" t="s">
-        <v>170</v>
-      </c>
-      <c r="S5" s="52" t="s">
-        <v>171</v>
-      </c>
-      <c r="T5" s="55" t="s">
-        <v>253</v>
-      </c>
-      <c r="U5" s="52" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" ht="150" x14ac:dyDescent="0.25">
+      <c r="R5" s="52" t="s">
+        <v>164</v>
+      </c>
+      <c r="S5" s="51" t="s">
+        <v>165</v>
+      </c>
+      <c r="T5" s="54" t="s">
+        <v>209</v>
+      </c>
+      <c r="U5" s="51" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="31" t="s">
         <v>16</v>
       </c>
@@ -2052,7 +2426,7 @@
         <v>121</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>248</v>
+        <v>207</v>
       </c>
       <c r="D6" s="37" t="s">
         <v>122</v>
@@ -2060,7 +2434,7 @@
       <c r="E6" s="13"/>
       <c r="F6" s="9"/>
       <c r="G6" s="21" t="s">
-        <v>283</v>
+        <v>262</v>
       </c>
       <c r="H6" s="25">
         <v>4</v>
@@ -2069,7 +2443,7 @@
         <v>20</v>
       </c>
       <c r="J6" s="10" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="K6" s="44" t="s">
         <v>20</v>
@@ -2078,32 +2452,32 @@
         <v>8</v>
       </c>
       <c r="M6" s="49"/>
-      <c r="N6" s="57" t="s">
+      <c r="N6" s="48" t="s">
         <v>30</v>
       </c>
       <c r="O6" s="24" t="s">
-        <v>301</v>
+        <v>245</v>
       </c>
       <c r="P6" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="Q6" s="52">
+      <c r="Q6" s="51">
         <v>6</v>
       </c>
-      <c r="R6" s="53" t="s">
-        <v>170</v>
-      </c>
-      <c r="S6" s="52" t="s">
-        <v>171</v>
-      </c>
-      <c r="T6" s="55" t="s">
-        <v>178</v>
-      </c>
-      <c r="U6" s="52" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" ht="87" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R6" s="52" t="s">
+        <v>164</v>
+      </c>
+      <c r="S6" s="51" t="s">
+        <v>165</v>
+      </c>
+      <c r="T6" s="54" t="s">
+        <v>172</v>
+      </c>
+      <c r="U6" s="51" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="31" t="s">
         <v>16</v>
       </c>
@@ -2111,7 +2485,7 @@
         <v>121</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>248</v>
+        <v>207</v>
       </c>
       <c r="D7" s="37" t="s">
         <v>122</v>
@@ -2119,7 +2493,7 @@
       <c r="E7" s="13"/>
       <c r="F7" s="9"/>
       <c r="G7" s="21" t="s">
-        <v>190</v>
+        <v>263</v>
       </c>
       <c r="H7" s="25">
         <v>5</v>
@@ -2128,7 +2502,7 @@
         <v>20</v>
       </c>
       <c r="J7" s="10" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="K7" s="44" t="s">
         <v>20</v>
@@ -2137,32 +2511,32 @@
         <v>8</v>
       </c>
       <c r="M7" s="49"/>
-      <c r="N7" s="57" t="s">
+      <c r="N7" s="48" t="s">
         <v>36</v>
       </c>
       <c r="O7" s="24" t="s">
-        <v>302</v>
+        <v>246</v>
       </c>
       <c r="P7" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="Q7" s="52">
+      <c r="Q7" s="51">
         <v>6</v>
       </c>
-      <c r="R7" s="53" t="s">
-        <v>170</v>
-      </c>
-      <c r="S7" s="52" t="s">
-        <v>171</v>
-      </c>
-      <c r="T7" s="55" t="s">
-        <v>179</v>
-      </c>
-      <c r="U7" s="52" t="s">
+      <c r="R7" s="52" t="s">
+        <v>164</v>
+      </c>
+      <c r="S7" s="51" t="s">
+        <v>165</v>
+      </c>
+      <c r="T7" s="54" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" ht="255" x14ac:dyDescent="0.25">
+      <c r="U7" s="51" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="120" x14ac:dyDescent="0.25">
       <c r="A8" s="31" t="s">
         <v>16</v>
       </c>
@@ -2170,7 +2544,7 @@
         <v>121</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>248</v>
+        <v>207</v>
       </c>
       <c r="D8" s="37" t="s">
         <v>122</v>
@@ -2178,7 +2552,7 @@
       <c r="E8" s="13"/>
       <c r="F8" s="9"/>
       <c r="G8" s="21" t="s">
-        <v>191</v>
+        <v>264</v>
       </c>
       <c r="H8" s="25">
         <v>6</v>
@@ -2187,7 +2561,7 @@
         <v>20</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>192</v>
+        <v>289</v>
       </c>
       <c r="K8" s="44" t="s">
         <v>20</v>
@@ -2196,29 +2570,29 @@
         <v>8</v>
       </c>
       <c r="M8" s="49"/>
-      <c r="N8" s="57" t="s">
+      <c r="N8" s="48" t="s">
         <v>52</v>
       </c>
       <c r="O8" s="24" t="s">
-        <v>311</v>
+        <v>255</v>
       </c>
       <c r="P8" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="Q8" s="52">
+      <c r="Q8" s="51">
         <v>6</v>
       </c>
-      <c r="R8" s="53" t="s">
-        <v>170</v>
-      </c>
-      <c r="S8" s="52" t="s">
-        <v>171</v>
-      </c>
-      <c r="T8" s="55" t="s">
-        <v>174</v>
-      </c>
-      <c r="U8" s="52" t="s">
-        <v>173</v>
+      <c r="R8" s="52" t="s">
+        <v>164</v>
+      </c>
+      <c r="S8" s="51" t="s">
+        <v>165</v>
+      </c>
+      <c r="T8" s="54" t="s">
+        <v>168</v>
+      </c>
+      <c r="U8" s="51" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2229,7 +2603,7 @@
         <v>121</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>248</v>
+        <v>207</v>
       </c>
       <c r="D9" s="19" t="s">
         <v>123</v>
@@ -2241,7 +2615,7 @@
         <v>124</v>
       </c>
       <c r="G9" s="21" t="s">
-        <v>292</v>
+        <v>241</v>
       </c>
       <c r="H9" s="25">
         <v>7</v>
@@ -2250,7 +2624,7 @@
         <v>19</v>
       </c>
       <c r="J9" s="10" t="s">
-        <v>194</v>
+        <v>290</v>
       </c>
       <c r="K9" s="44" t="s">
         <v>20</v>
@@ -2261,27 +2635,27 @@
       <c r="M9" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="N9" s="57"/>
+      <c r="N9" s="48"/>
       <c r="O9" s="24" t="s">
-        <v>303</v>
+        <v>247</v>
       </c>
       <c r="P9" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="Q9" s="52">
+      <c r="Q9" s="51">
         <v>6</v>
       </c>
-      <c r="R9" s="53" t="s">
-        <v>182</v>
-      </c>
-      <c r="S9" s="52" t="s">
-        <v>183</v>
-      </c>
-      <c r="T9" s="55" t="s">
-        <v>254</v>
-      </c>
-      <c r="U9" s="52" t="s">
-        <v>185</v>
+      <c r="R9" s="52" t="s">
+        <v>176</v>
+      </c>
+      <c r="S9" s="51" t="s">
+        <v>177</v>
+      </c>
+      <c r="T9" s="54" t="s">
+        <v>210</v>
+      </c>
+      <c r="U9" s="51" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2292,7 +2666,7 @@
         <v>121</v>
       </c>
       <c r="C10" s="30" t="s">
-        <v>248</v>
+        <v>207</v>
       </c>
       <c r="D10" s="19" t="s">
         <v>123</v>
@@ -2304,7 +2678,7 @@
         <v>125</v>
       </c>
       <c r="G10" s="21" t="s">
-        <v>203</v>
+        <v>183</v>
       </c>
       <c r="H10" s="25">
         <v>8</v>
@@ -2313,7 +2687,7 @@
         <v>20</v>
       </c>
       <c r="J10" s="10" t="s">
-        <v>204</v>
+        <v>291</v>
       </c>
       <c r="K10" s="44" t="s">
         <v>20</v>
@@ -2322,29 +2696,29 @@
         <v>8</v>
       </c>
       <c r="M10" s="49"/>
-      <c r="N10" s="57" t="s">
+      <c r="N10" s="48" t="s">
         <v>46</v>
       </c>
       <c r="O10" s="24" t="s">
-        <v>304</v>
+        <v>248</v>
       </c>
       <c r="P10" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="Q10" s="52">
+      <c r="Q10" s="51">
         <v>6</v>
       </c>
-      <c r="R10" s="53" t="s">
-        <v>170</v>
-      </c>
-      <c r="S10" s="52" t="s">
-        <v>171</v>
-      </c>
-      <c r="T10" s="55" t="s">
-        <v>255</v>
-      </c>
-      <c r="U10" s="52" t="s">
-        <v>173</v>
+      <c r="R10" s="52" t="s">
+        <v>164</v>
+      </c>
+      <c r="S10" s="51" t="s">
+        <v>165</v>
+      </c>
+      <c r="T10" s="54" t="s">
+        <v>211</v>
+      </c>
+      <c r="U10" s="51" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2355,7 +2729,7 @@
         <v>121</v>
       </c>
       <c r="C11" s="30" t="s">
-        <v>248</v>
+        <v>207</v>
       </c>
       <c r="D11" s="19" t="s">
         <v>123</v>
@@ -2366,8 +2740,8 @@
       <c r="F11" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="G11" s="20" t="s">
-        <v>205</v>
+      <c r="G11" s="21" t="s">
+        <v>184</v>
       </c>
       <c r="H11" s="25">
         <v>9</v>
@@ -2376,7 +2750,7 @@
         <v>20</v>
       </c>
       <c r="J11" s="10" t="s">
-        <v>206</v>
+        <v>185</v>
       </c>
       <c r="K11" s="44" t="s">
         <v>20</v>
@@ -2385,32 +2759,32 @@
         <v>8</v>
       </c>
       <c r="M11" s="49"/>
-      <c r="N11" s="57" t="s">
+      <c r="N11" s="48" t="s">
         <v>28</v>
       </c>
       <c r="O11" s="24" t="s">
-        <v>305</v>
+        <v>249</v>
       </c>
       <c r="P11" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="Q11" s="52">
+      <c r="Q11" s="51">
         <v>6</v>
       </c>
-      <c r="R11" s="53" t="s">
-        <v>170</v>
-      </c>
-      <c r="S11" s="52" t="s">
-        <v>171</v>
-      </c>
-      <c r="T11" s="55" t="s">
-        <v>256</v>
-      </c>
-      <c r="U11" s="52" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" ht="75" x14ac:dyDescent="0.25">
+      <c r="R11" s="52" t="s">
+        <v>164</v>
+      </c>
+      <c r="S11" s="51" t="s">
+        <v>165</v>
+      </c>
+      <c r="T11" s="54" t="s">
+        <v>212</v>
+      </c>
+      <c r="U11" s="51" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="31" t="s">
         <v>16</v>
       </c>
@@ -2418,7 +2792,7 @@
         <v>121</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>248</v>
+        <v>207</v>
       </c>
       <c r="D12" s="19" t="s">
         <v>123</v>
@@ -2430,7 +2804,7 @@
         <v>127</v>
       </c>
       <c r="G12" s="21" t="s">
-        <v>291</v>
+        <v>265</v>
       </c>
       <c r="H12" s="25">
         <v>10</v>
@@ -2439,7 +2813,7 @@
         <v>19</v>
       </c>
       <c r="J12" s="10" t="s">
-        <v>195</v>
+        <v>292</v>
       </c>
       <c r="K12" s="44" t="s">
         <v>20</v>
@@ -2450,27 +2824,27 @@
       <c r="M12" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="N12" s="57"/>
+      <c r="N12" s="48"/>
       <c r="O12" s="24" t="s">
-        <v>306</v>
+        <v>250</v>
       </c>
       <c r="P12" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="Q12" s="52">
+      <c r="Q12" s="51">
         <v>6</v>
       </c>
-      <c r="R12" s="53" t="s">
-        <v>182</v>
-      </c>
-      <c r="S12" s="52" t="s">
-        <v>183</v>
-      </c>
-      <c r="T12" s="55" t="s">
-        <v>257</v>
-      </c>
-      <c r="U12" s="52" t="s">
-        <v>185</v>
+      <c r="R12" s="52" t="s">
+        <v>176</v>
+      </c>
+      <c r="S12" s="51" t="s">
+        <v>177</v>
+      </c>
+      <c r="T12" s="54" t="s">
+        <v>213</v>
+      </c>
+      <c r="U12" s="51" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="42" customHeight="1" x14ac:dyDescent="0.25">
@@ -2481,7 +2855,7 @@
         <v>121</v>
       </c>
       <c r="C13" s="30" t="s">
-        <v>248</v>
+        <v>207</v>
       </c>
       <c r="D13" s="19" t="s">
         <v>123</v>
@@ -2493,7 +2867,7 @@
         <v>125</v>
       </c>
       <c r="G13" s="21" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
       <c r="H13" s="25">
         <v>11</v>
@@ -2502,7 +2876,7 @@
         <v>20</v>
       </c>
       <c r="J13" s="10" t="s">
-        <v>208</v>
+        <v>293</v>
       </c>
       <c r="K13" s="44" t="s">
         <v>20</v>
@@ -2511,32 +2885,32 @@
         <v>8</v>
       </c>
       <c r="M13" s="49"/>
-      <c r="N13" s="57" t="s">
-        <v>30</v>
+      <c r="N13" s="48" t="s">
+        <v>31</v>
       </c>
       <c r="O13" s="24" t="s">
-        <v>307</v>
+        <v>251</v>
       </c>
       <c r="P13" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="Q13" s="52">
+      <c r="Q13" s="51">
         <v>6</v>
       </c>
-      <c r="R13" s="53" t="s">
-        <v>170</v>
-      </c>
-      <c r="S13" s="52" t="s">
-        <v>171</v>
-      </c>
-      <c r="T13" s="55" t="s">
-        <v>258</v>
-      </c>
-      <c r="U13" s="52" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" ht="255" x14ac:dyDescent="0.25">
+      <c r="R13" s="52" t="s">
+        <v>164</v>
+      </c>
+      <c r="S13" s="51" t="s">
+        <v>165</v>
+      </c>
+      <c r="T13" s="54" t="s">
+        <v>214</v>
+      </c>
+      <c r="U13" s="51" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" ht="120" x14ac:dyDescent="0.25">
       <c r="A14" s="31" t="s">
         <v>16</v>
       </c>
@@ -2544,7 +2918,7 @@
         <v>121</v>
       </c>
       <c r="C14" s="30" t="s">
-        <v>248</v>
+        <v>207</v>
       </c>
       <c r="D14" s="19" t="s">
         <v>123</v>
@@ -2554,7 +2928,7 @@
       </c>
       <c r="F14" s="9"/>
       <c r="G14" s="21" t="s">
-        <v>193</v>
+        <v>266</v>
       </c>
       <c r="H14" s="25">
         <v>12</v>
@@ -2563,7 +2937,7 @@
         <v>19</v>
       </c>
       <c r="J14" s="10" t="s">
-        <v>196</v>
+        <v>294</v>
       </c>
       <c r="K14" s="44" t="s">
         <v>20</v>
@@ -2574,30 +2948,30 @@
       <c r="M14" s="49" t="s">
         <v>56</v>
       </c>
-      <c r="N14" s="57"/>
+      <c r="N14" s="48"/>
       <c r="O14" s="24" t="s">
-        <v>312</v>
+        <v>256</v>
       </c>
       <c r="P14" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="Q14" s="52">
+      <c r="Q14" s="51">
         <v>6</v>
       </c>
-      <c r="R14" s="53" t="s">
-        <v>182</v>
-      </c>
-      <c r="S14" s="52" t="s">
-        <v>183</v>
-      </c>
-      <c r="T14" s="55" t="s">
-        <v>259</v>
-      </c>
-      <c r="U14" s="52" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R14" s="52" t="s">
+        <v>176</v>
+      </c>
+      <c r="S14" s="51" t="s">
+        <v>177</v>
+      </c>
+      <c r="T14" s="54" t="s">
+        <v>215</v>
+      </c>
+      <c r="U14" s="51" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" ht="75" x14ac:dyDescent="0.25">
       <c r="A15" s="31" t="s">
         <v>16</v>
       </c>
@@ -2605,7 +2979,7 @@
         <v>121</v>
       </c>
       <c r="C15" s="30" t="s">
-        <v>248</v>
+        <v>207</v>
       </c>
       <c r="D15" s="19" t="s">
         <v>123</v>
@@ -2615,7 +2989,7 @@
       </c>
       <c r="F15" s="9"/>
       <c r="G15" s="21" t="s">
-        <v>197</v>
+        <v>267</v>
       </c>
       <c r="H15" s="25">
         <v>13</v>
@@ -2624,7 +2998,7 @@
         <v>20</v>
       </c>
       <c r="J15" s="10" t="s">
-        <v>198</v>
+        <v>295</v>
       </c>
       <c r="K15" s="44" t="s">
         <v>20</v>
@@ -2633,29 +3007,29 @@
         <v>8</v>
       </c>
       <c r="M15" s="49"/>
-      <c r="N15" s="57" t="s">
+      <c r="N15" s="48" t="s">
         <v>52</v>
       </c>
       <c r="O15" s="24" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
       <c r="P15" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="Q15" s="52">
+      <c r="Q15" s="51">
         <v>6</v>
       </c>
-      <c r="R15" s="53" t="s">
-        <v>170</v>
-      </c>
-      <c r="S15" s="52" t="s">
-        <v>171</v>
-      </c>
-      <c r="T15" s="55" t="s">
-        <v>175</v>
-      </c>
-      <c r="U15" s="52" t="s">
-        <v>173</v>
+      <c r="R15" s="52" t="s">
+        <v>164</v>
+      </c>
+      <c r="S15" s="51" t="s">
+        <v>165</v>
+      </c>
+      <c r="T15" s="54" t="s">
+        <v>169</v>
+      </c>
+      <c r="U15" s="51" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2666,7 +3040,7 @@
         <v>121</v>
       </c>
       <c r="C16" s="30" t="s">
-        <v>248</v>
+        <v>207</v>
       </c>
       <c r="D16" s="19" t="s">
         <v>129</v>
@@ -2674,7 +3048,7 @@
       <c r="E16" s="8"/>
       <c r="F16" s="9"/>
       <c r="G16" s="21" t="s">
-        <v>209</v>
+        <v>187</v>
       </c>
       <c r="H16" s="25">
         <v>14</v>
@@ -2683,7 +3057,7 @@
         <v>19</v>
       </c>
       <c r="J16" s="10" t="s">
-        <v>152</v>
+        <v>296</v>
       </c>
       <c r="K16" s="44" t="s">
         <v>19</v>
@@ -2692,30 +3066,30 @@
         <v>5</v>
       </c>
       <c r="M16" s="49"/>
-      <c r="N16" s="57"/>
+      <c r="N16" s="48"/>
       <c r="O16" s="24" t="s">
-        <v>212</v>
+        <v>190</v>
       </c>
       <c r="P16" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="Q16" s="52" t="s">
+      <c r="Q16" s="51" t="s">
+        <v>152</v>
+      </c>
+      <c r="R16" s="52" t="s">
         <v>153</v>
       </c>
-      <c r="R16" s="53" t="s">
+      <c r="S16" s="51" t="s">
         <v>154</v>
       </c>
-      <c r="S16" s="52" t="s">
+      <c r="T16" s="54" t="s">
         <v>155</v>
       </c>
-      <c r="T16" s="55" t="s">
+      <c r="U16" s="51" t="s">
         <v>156</v>
       </c>
-      <c r="U16" s="52" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="31" t="s">
         <v>16</v>
       </c>
@@ -2723,7 +3097,7 @@
         <v>121</v>
       </c>
       <c r="C17" s="30" t="s">
-        <v>248</v>
+        <v>207</v>
       </c>
       <c r="D17" s="19" t="s">
         <v>129</v>
@@ -2733,7 +3107,7 @@
       </c>
       <c r="F17" s="9"/>
       <c r="G17" s="20" t="s">
-        <v>210</v>
+        <v>188</v>
       </c>
       <c r="H17" s="25">
         <v>15</v>
@@ -2742,7 +3116,7 @@
         <v>20</v>
       </c>
       <c r="J17" s="10" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="K17" s="44" t="s">
         <v>20</v>
@@ -2751,32 +3125,32 @@
         <v>8</v>
       </c>
       <c r="M17" s="49"/>
-      <c r="N17" s="57" t="s">
+      <c r="N17" s="48" t="s">
         <v>27</v>
       </c>
       <c r="O17" s="24" t="s">
-        <v>308</v>
+        <v>252</v>
       </c>
       <c r="P17" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="Q17" s="52">
+      <c r="Q17" s="51">
         <v>6</v>
       </c>
-      <c r="R17" s="53" t="s">
-        <v>170</v>
-      </c>
-      <c r="S17" s="52" t="s">
-        <v>171</v>
-      </c>
-      <c r="T17" s="55" t="s">
-        <v>260</v>
-      </c>
-      <c r="U17" s="52" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" ht="90" x14ac:dyDescent="0.25">
+      <c r="R17" s="52" t="s">
+        <v>164</v>
+      </c>
+      <c r="S17" s="51" t="s">
+        <v>165</v>
+      </c>
+      <c r="T17" s="54" t="s">
+        <v>216</v>
+      </c>
+      <c r="U17" s="51" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="31" t="s">
         <v>16</v>
       </c>
@@ -2784,7 +3158,7 @@
         <v>121</v>
       </c>
       <c r="C18" s="30" t="s">
-        <v>248</v>
+        <v>207</v>
       </c>
       <c r="D18" s="19" t="s">
         <v>129</v>
@@ -2794,7 +3168,7 @@
       </c>
       <c r="F18" s="9"/>
       <c r="G18" s="21" t="s">
-        <v>160</v>
+        <v>268</v>
       </c>
       <c r="H18" s="25">
         <v>16</v>
@@ -2803,7 +3177,7 @@
         <v>20</v>
       </c>
       <c r="J18" s="10" t="s">
-        <v>161</v>
+        <v>297</v>
       </c>
       <c r="K18" s="44" t="s">
         <v>19</v>
@@ -2812,30 +3186,30 @@
         <v>8</v>
       </c>
       <c r="M18" s="49"/>
-      <c r="N18" s="57"/>
+      <c r="N18" s="48"/>
       <c r="O18" s="24" t="s">
-        <v>212</v>
+        <v>190</v>
       </c>
       <c r="P18" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="Q18" s="52" t="s">
+      <c r="Q18" s="51" t="s">
+        <v>152</v>
+      </c>
+      <c r="R18" s="52" t="s">
         <v>153</v>
       </c>
-      <c r="R18" s="53" t="s">
+      <c r="S18" s="51" t="s">
         <v>154</v>
       </c>
-      <c r="S18" s="52" t="s">
-        <v>155</v>
-      </c>
-      <c r="T18" s="58" t="s">
-        <v>160</v>
-      </c>
-      <c r="U18" s="52" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T18" s="55" t="s">
+        <v>158</v>
+      </c>
+      <c r="U18" s="51" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="31" t="s">
         <v>16</v>
       </c>
@@ -2843,7 +3217,7 @@
         <v>121</v>
       </c>
       <c r="C19" s="30" t="s">
-        <v>248</v>
+        <v>207</v>
       </c>
       <c r="D19" s="19" t="s">
         <v>129</v>
@@ -2853,7 +3227,7 @@
       </c>
       <c r="F19" s="9"/>
       <c r="G19" s="21" t="s">
-        <v>158</v>
+        <v>269</v>
       </c>
       <c r="H19" s="25">
         <v>17</v>
@@ -2862,7 +3236,7 @@
         <v>20</v>
       </c>
       <c r="J19" s="10" t="s">
-        <v>159</v>
+        <v>298</v>
       </c>
       <c r="K19" s="44" t="s">
         <v>19</v>
@@ -2871,27 +3245,27 @@
         <v>8</v>
       </c>
       <c r="M19" s="49"/>
-      <c r="N19" s="57"/>
+      <c r="N19" s="48"/>
       <c r="O19" s="24" t="s">
-        <v>212</v>
+        <v>190</v>
       </c>
       <c r="P19" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="Q19" s="52" t="s">
+      <c r="Q19" s="51" t="s">
+        <v>152</v>
+      </c>
+      <c r="R19" s="52" t="s">
         <v>153</v>
       </c>
-      <c r="R19" s="53" t="s">
+      <c r="S19" s="51" t="s">
         <v>154</v>
       </c>
-      <c r="S19" s="52" t="s">
-        <v>155</v>
-      </c>
-      <c r="T19" s="58" t="s">
-        <v>158</v>
-      </c>
-      <c r="U19" s="52" t="s">
+      <c r="T19" s="55" t="s">
         <v>157</v>
+      </c>
+      <c r="U19" s="51" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="20" spans="1:21" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2902,7 +3276,7 @@
         <v>121</v>
       </c>
       <c r="C20" s="30" t="s">
-        <v>248</v>
+        <v>207</v>
       </c>
       <c r="D20" s="19" t="s">
         <v>129</v>
@@ -2912,7 +3286,7 @@
       </c>
       <c r="F20" s="9"/>
       <c r="G20" s="21" t="s">
-        <v>213</v>
+        <v>270</v>
       </c>
       <c r="H20" s="25">
         <v>18</v>
@@ -2921,7 +3295,7 @@
         <v>20</v>
       </c>
       <c r="J20" s="10" t="s">
-        <v>214</v>
+        <v>299</v>
       </c>
       <c r="K20" s="44" t="s">
         <v>20</v>
@@ -2930,29 +3304,29 @@
         <v>8</v>
       </c>
       <c r="M20" s="49"/>
-      <c r="N20" s="57" t="s">
+      <c r="N20" s="48" t="s">
         <v>52</v>
       </c>
       <c r="O20" s="24" t="s">
-        <v>309</v>
+        <v>253</v>
       </c>
       <c r="P20" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="Q20" s="52">
+      <c r="Q20" s="51">
         <v>6</v>
       </c>
-      <c r="R20" s="53" t="s">
+      <c r="R20" s="52" t="s">
+        <v>164</v>
+      </c>
+      <c r="S20" s="51" t="s">
+        <v>165</v>
+      </c>
+      <c r="T20" s="54" t="s">
         <v>170</v>
       </c>
-      <c r="S20" s="52" t="s">
-        <v>171</v>
-      </c>
-      <c r="T20" s="55" t="s">
-        <v>176</v>
-      </c>
-      <c r="U20" s="52" t="s">
-        <v>173</v>
+      <c r="U20" s="51" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="21" spans="1:21" ht="115.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2963,7 +3337,7 @@
         <v>121</v>
       </c>
       <c r="C21" s="30" t="s">
-        <v>248</v>
+        <v>207</v>
       </c>
       <c r="D21" s="19" t="s">
         <v>136</v>
@@ -2971,7 +3345,7 @@
       <c r="E21" s="13"/>
       <c r="F21" s="9"/>
       <c r="G21" s="21" t="s">
-        <v>293</v>
+        <v>271</v>
       </c>
       <c r="H21" s="25">
         <v>19</v>
@@ -2980,7 +3354,7 @@
         <v>19</v>
       </c>
       <c r="J21" s="10" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="K21" s="44" t="s">
         <v>20</v>
@@ -2991,30 +3365,30 @@
       <c r="M21" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="N21" s="57"/>
+      <c r="N21" s="48"/>
       <c r="O21" s="24" t="s">
-        <v>313</v>
+        <v>236</v>
       </c>
       <c r="P21" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="Q21" s="52">
+      <c r="Q21" s="51">
         <v>6</v>
       </c>
-      <c r="R21" s="53" t="s">
-        <v>182</v>
-      </c>
-      <c r="S21" s="52" t="s">
-        <v>183</v>
-      </c>
-      <c r="T21" s="55" t="s">
-        <v>261</v>
-      </c>
-      <c r="U21" s="52" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" ht="105" x14ac:dyDescent="0.25">
+      <c r="R21" s="52" t="s">
+        <v>176</v>
+      </c>
+      <c r="S21" s="51" t="s">
+        <v>177</v>
+      </c>
+      <c r="T21" s="54" t="s">
+        <v>217</v>
+      </c>
+      <c r="U21" s="51" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A22" s="31" t="s">
         <v>16</v>
       </c>
@@ -3022,7 +3396,7 @@
         <v>121</v>
       </c>
       <c r="C22" s="30" t="s">
-        <v>248</v>
+        <v>207</v>
       </c>
       <c r="D22" s="19" t="s">
         <v>136</v>
@@ -3032,7 +3406,7 @@
       </c>
       <c r="F22" s="9"/>
       <c r="G22" s="21" t="s">
-        <v>219</v>
+        <v>272</v>
       </c>
       <c r="H22" s="25">
         <v>20</v>
@@ -3041,7 +3415,7 @@
         <v>20</v>
       </c>
       <c r="J22" s="10" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="K22" s="44" t="s">
         <v>20</v>
@@ -3050,32 +3424,32 @@
         <v>8</v>
       </c>
       <c r="M22" s="49"/>
-      <c r="N22" s="57" t="s">
+      <c r="N22" s="48" t="s">
         <v>28</v>
       </c>
       <c r="O22" s="24" t="s">
-        <v>220</v>
+        <v>193</v>
       </c>
       <c r="P22" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="Q22" s="52">
+      <c r="Q22" s="51">
         <v>6</v>
       </c>
-      <c r="R22" s="53" t="s">
-        <v>170</v>
-      </c>
-      <c r="S22" s="52" t="s">
-        <v>171</v>
-      </c>
-      <c r="T22" s="55" t="s">
-        <v>262</v>
-      </c>
-      <c r="U22" s="52" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R22" s="52" t="s">
+        <v>164</v>
+      </c>
+      <c r="S22" s="51" t="s">
+        <v>165</v>
+      </c>
+      <c r="T22" s="54" t="s">
+        <v>218</v>
+      </c>
+      <c r="U22" s="51" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" ht="75" x14ac:dyDescent="0.25">
       <c r="A23" s="31" t="s">
         <v>16</v>
       </c>
@@ -3083,7 +3457,7 @@
         <v>121</v>
       </c>
       <c r="C23" s="30" t="s">
-        <v>248</v>
+        <v>207</v>
       </c>
       <c r="D23" s="19" t="s">
         <v>136</v>
@@ -3093,7 +3467,7 @@
       </c>
       <c r="F23" s="9"/>
       <c r="G23" s="21" t="s">
-        <v>216</v>
+        <v>273</v>
       </c>
       <c r="H23" s="25">
         <v>21</v>
@@ -3102,7 +3476,7 @@
         <v>20</v>
       </c>
       <c r="J23" s="10" t="s">
-        <v>218</v>
+        <v>302</v>
       </c>
       <c r="K23" s="44" t="s">
         <v>20</v>
@@ -3111,32 +3485,32 @@
         <v>8</v>
       </c>
       <c r="M23" s="49"/>
-      <c r="N23" s="57" t="s">
+      <c r="N23" s="48" t="s">
         <v>38</v>
       </c>
       <c r="O23" s="24" t="s">
-        <v>217</v>
+        <v>192</v>
       </c>
       <c r="P23" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="Q23" s="52">
+      <c r="Q23" s="51">
         <v>6</v>
       </c>
-      <c r="R23" s="53" t="s">
-        <v>170</v>
-      </c>
-      <c r="S23" s="52" t="s">
-        <v>171</v>
-      </c>
-      <c r="T23" s="55" t="s">
-        <v>263</v>
-      </c>
-      <c r="U23" s="52" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" ht="90" x14ac:dyDescent="0.25">
+      <c r="R23" s="52" t="s">
+        <v>164</v>
+      </c>
+      <c r="S23" s="51" t="s">
+        <v>165</v>
+      </c>
+      <c r="T23" s="54" t="s">
+        <v>219</v>
+      </c>
+      <c r="U23" s="51" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="31" t="s">
         <v>16</v>
       </c>
@@ -3144,7 +3518,7 @@
         <v>121</v>
       </c>
       <c r="C24" s="30" t="s">
-        <v>248</v>
+        <v>207</v>
       </c>
       <c r="D24" s="19" t="s">
         <v>136</v>
@@ -3154,7 +3528,7 @@
       </c>
       <c r="F24" s="9"/>
       <c r="G24" s="21" t="s">
-        <v>228</v>
+        <v>274</v>
       </c>
       <c r="H24" s="25">
         <v>22</v>
@@ -3163,7 +3537,7 @@
         <v>20</v>
       </c>
       <c r="J24" s="10" t="s">
-        <v>229</v>
+        <v>303</v>
       </c>
       <c r="K24" s="44" t="s">
         <v>20</v>
@@ -3172,32 +3546,32 @@
         <v>8</v>
       </c>
       <c r="M24" s="49"/>
-      <c r="N24" s="57" t="s">
+      <c r="N24" s="48" t="s">
         <v>44</v>
       </c>
       <c r="O24" s="24" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
       <c r="P24" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="Q24" s="52">
+      <c r="Q24" s="51">
         <v>6</v>
       </c>
-      <c r="R24" s="53" t="s">
-        <v>170</v>
-      </c>
-      <c r="S24" s="52" t="s">
-        <v>171</v>
-      </c>
-      <c r="T24" s="55" t="s">
-        <v>264</v>
-      </c>
-      <c r="U24" s="52" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R24" s="52" t="s">
+        <v>164</v>
+      </c>
+      <c r="S24" s="51" t="s">
+        <v>165</v>
+      </c>
+      <c r="T24" s="54" t="s">
+        <v>220</v>
+      </c>
+      <c r="U24" s="51" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="31" t="s">
         <v>16</v>
       </c>
@@ -3205,7 +3579,7 @@
         <v>121</v>
       </c>
       <c r="C25" s="30" t="s">
-        <v>248</v>
+        <v>207</v>
       </c>
       <c r="D25" s="19" t="s">
         <v>136</v>
@@ -3215,7 +3589,7 @@
       </c>
       <c r="F25" s="9"/>
       <c r="G25" s="21" t="s">
-        <v>221</v>
+        <v>194</v>
       </c>
       <c r="H25" s="25">
         <v>23</v>
@@ -3224,7 +3598,7 @@
         <v>20</v>
       </c>
       <c r="J25" s="10" t="s">
-        <v>169</v>
+        <v>304</v>
       </c>
       <c r="K25" s="44" t="s">
         <v>19</v>
@@ -3233,30 +3607,30 @@
         <v>8</v>
       </c>
       <c r="M25" s="49"/>
-      <c r="N25" s="57"/>
+      <c r="N25" s="48"/>
       <c r="O25" s="24" t="s">
-        <v>212</v>
+        <v>190</v>
       </c>
       <c r="P25" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="Q25" s="52" t="s">
+      <c r="Q25" s="51" t="s">
+        <v>152</v>
+      </c>
+      <c r="R25" s="52" t="s">
         <v>153</v>
       </c>
-      <c r="R25" s="53" t="s">
-        <v>154</v>
-      </c>
-      <c r="S25" s="52" t="s">
-        <v>164</v>
-      </c>
-      <c r="T25" s="58" t="s">
-        <v>168</v>
-      </c>
-      <c r="U25" s="52" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" ht="90" x14ac:dyDescent="0.25">
+      <c r="S25" s="51" t="s">
+        <v>160</v>
+      </c>
+      <c r="T25" s="55" t="s">
+        <v>163</v>
+      </c>
+      <c r="U25" s="51" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="31" t="s">
         <v>16</v>
       </c>
@@ -3264,7 +3638,7 @@
         <v>121</v>
       </c>
       <c r="C26" s="30" t="s">
-        <v>248</v>
+        <v>207</v>
       </c>
       <c r="D26" s="19" t="s">
         <v>136</v>
@@ -3273,8 +3647,8 @@
         <v>140</v>
       </c>
       <c r="F26" s="9"/>
-      <c r="G26" s="21" t="s">
-        <v>222</v>
+      <c r="G26" s="86" t="s">
+        <v>275</v>
       </c>
       <c r="H26" s="25">
         <v>24</v>
@@ -3283,7 +3657,7 @@
         <v>20</v>
       </c>
       <c r="J26" s="10" t="s">
-        <v>167</v>
+        <v>305</v>
       </c>
       <c r="K26" s="44" t="s">
         <v>19</v>
@@ -3292,30 +3666,30 @@
         <v>8</v>
       </c>
       <c r="M26" s="49"/>
-      <c r="N26" s="57"/>
+      <c r="N26" s="48"/>
       <c r="O26" s="24" t="s">
-        <v>212</v>
+        <v>190</v>
       </c>
       <c r="P26" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="Q26" s="52" t="s">
+      <c r="Q26" s="51" t="s">
+        <v>152</v>
+      </c>
+      <c r="R26" s="52" t="s">
         <v>153</v>
       </c>
-      <c r="R26" s="53" t="s">
-        <v>154</v>
-      </c>
-      <c r="S26" s="52" t="s">
-        <v>164</v>
-      </c>
-      <c r="T26" s="58" t="s">
-        <v>166</v>
-      </c>
-      <c r="U26" s="52" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" ht="121.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S26" s="51" t="s">
+        <v>160</v>
+      </c>
+      <c r="T26" s="55" t="s">
+        <v>162</v>
+      </c>
+      <c r="U26" s="51" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="31" t="s">
         <v>16</v>
       </c>
@@ -3323,7 +3697,7 @@
         <v>121</v>
       </c>
       <c r="C27" s="30" t="s">
-        <v>248</v>
+        <v>207</v>
       </c>
       <c r="D27" s="19" t="s">
         <v>136</v>
@@ -3332,8 +3706,8 @@
         <v>140</v>
       </c>
       <c r="F27" s="9"/>
-      <c r="G27" s="21" t="s">
-        <v>223</v>
+      <c r="G27" s="86" t="s">
+        <v>276</v>
       </c>
       <c r="H27" s="25">
         <v>25</v>
@@ -3342,7 +3716,7 @@
         <v>20</v>
       </c>
       <c r="J27" s="10" t="s">
-        <v>162</v>
+        <v>306</v>
       </c>
       <c r="K27" s="44" t="s">
         <v>19</v>
@@ -3351,30 +3725,30 @@
         <v>8</v>
       </c>
       <c r="M27" s="49"/>
-      <c r="N27" s="57"/>
+      <c r="N27" s="48"/>
       <c r="O27" s="24" t="s">
-        <v>212</v>
+        <v>190</v>
       </c>
       <c r="P27" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="Q27" s="52" t="s">
+      <c r="Q27" s="51" t="s">
+        <v>152</v>
+      </c>
+      <c r="R27" s="52" t="s">
         <v>153</v>
       </c>
-      <c r="R27" s="53" t="s">
-        <v>154</v>
-      </c>
-      <c r="S27" s="52" t="s">
-        <v>164</v>
-      </c>
-      <c r="T27" s="58" t="s">
-        <v>163</v>
-      </c>
-      <c r="U27" s="52" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" ht="75" x14ac:dyDescent="0.25">
+      <c r="S27" s="51" t="s">
+        <v>160</v>
+      </c>
+      <c r="T27" s="55" t="s">
+        <v>159</v>
+      </c>
+      <c r="U27" s="51" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="31" t="s">
         <v>16</v>
       </c>
@@ -3382,7 +3756,7 @@
         <v>121</v>
       </c>
       <c r="C28" s="30" t="s">
-        <v>248</v>
+        <v>207</v>
       </c>
       <c r="D28" s="19" t="s">
         <v>136</v>
@@ -3392,7 +3766,7 @@
       </c>
       <c r="F28" s="9"/>
       <c r="G28" s="21" t="s">
-        <v>227</v>
+        <v>277</v>
       </c>
       <c r="H28" s="25">
         <v>26</v>
@@ -3401,7 +3775,7 @@
         <v>20</v>
       </c>
       <c r="J28" s="10" t="s">
-        <v>226</v>
+        <v>307</v>
       </c>
       <c r="K28" s="44" t="s">
         <v>20</v>
@@ -3410,32 +3784,32 @@
         <v>8</v>
       </c>
       <c r="M28" s="49"/>
-      <c r="N28" s="57" t="s">
+      <c r="N28" s="48" t="s">
         <v>52</v>
       </c>
       <c r="O28" s="24" t="s">
-        <v>286</v>
+        <v>237</v>
       </c>
       <c r="P28" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="Q28" s="52">
+      <c r="Q28" s="51">
         <v>6</v>
       </c>
-      <c r="R28" s="53" t="s">
-        <v>170</v>
-      </c>
-      <c r="S28" s="52" t="s">
+      <c r="R28" s="52" t="s">
+        <v>164</v>
+      </c>
+      <c r="S28" s="51" t="s">
+        <v>165</v>
+      </c>
+      <c r="T28" s="54" t="s">
         <v>171</v>
       </c>
-      <c r="T28" s="55" t="s">
-        <v>177</v>
-      </c>
-      <c r="U28" s="52" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21" ht="111" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U28" s="51" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A29" s="31" t="s">
         <v>16</v>
       </c>
@@ -3443,7 +3817,7 @@
         <v>121</v>
       </c>
       <c r="C29" s="30" t="s">
-        <v>248</v>
+        <v>207</v>
       </c>
       <c r="D29" s="19" t="s">
         <v>141</v>
@@ -3453,7 +3827,7 @@
       </c>
       <c r="F29" s="9"/>
       <c r="G29" s="21" t="s">
-        <v>232</v>
+        <v>196</v>
       </c>
       <c r="H29" s="25">
         <v>27</v>
@@ -3462,7 +3836,7 @@
         <v>20</v>
       </c>
       <c r="J29" s="10" t="s">
-        <v>233</v>
+        <v>197</v>
       </c>
       <c r="K29" s="44" t="s">
         <v>20</v>
@@ -3471,29 +3845,29 @@
         <v>8</v>
       </c>
       <c r="M29" s="49"/>
-      <c r="N29" s="57" t="s">
+      <c r="N29" s="48" t="s">
         <v>23</v>
       </c>
       <c r="O29" s="24" t="s">
-        <v>234</v>
+        <v>198</v>
       </c>
       <c r="P29" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="Q29" s="52">
+      <c r="Q29" s="51">
         <v>6</v>
       </c>
-      <c r="R29" s="53" t="s">
-        <v>170</v>
-      </c>
-      <c r="S29" s="52" t="s">
-        <v>171</v>
-      </c>
-      <c r="T29" s="55" t="s">
-        <v>265</v>
-      </c>
-      <c r="U29" s="52" t="s">
-        <v>173</v>
+      <c r="R29" s="52" t="s">
+        <v>164</v>
+      </c>
+      <c r="S29" s="51" t="s">
+        <v>165</v>
+      </c>
+      <c r="T29" s="54" t="s">
+        <v>221</v>
+      </c>
+      <c r="U29" s="51" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="30" spans="1:21" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3504,17 +3878,17 @@
         <v>121</v>
       </c>
       <c r="C30" s="30" t="s">
-        <v>248</v>
+        <v>207</v>
       </c>
       <c r="D30" s="19" t="s">
         <v>141</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>287</v>
+        <v>238</v>
       </c>
       <c r="F30" s="9"/>
       <c r="G30" s="21" t="s">
-        <v>288</v>
+        <v>239</v>
       </c>
       <c r="H30" s="25">
         <v>28</v>
@@ -3523,7 +3897,7 @@
         <v>20</v>
       </c>
       <c r="J30" s="10" t="s">
-        <v>289</v>
+        <v>308</v>
       </c>
       <c r="K30" s="44" t="s">
         <v>20</v>
@@ -3532,32 +3906,32 @@
         <v>8</v>
       </c>
       <c r="M30" s="49"/>
-      <c r="N30" s="57" t="s">
+      <c r="N30" s="48" t="s">
         <v>36</v>
       </c>
       <c r="O30" s="24" t="s">
-        <v>290</v>
+        <v>240</v>
       </c>
       <c r="P30" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="Q30" s="52">
+      <c r="Q30" s="51">
         <v>6</v>
       </c>
-      <c r="R30" s="53" t="s">
-        <v>170</v>
-      </c>
-      <c r="S30" s="52" t="s">
-        <v>171</v>
-      </c>
-      <c r="T30" s="55" t="s">
-        <v>266</v>
-      </c>
-      <c r="U30" s="52" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R30" s="52" t="s">
+        <v>164</v>
+      </c>
+      <c r="S30" s="51" t="s">
+        <v>165</v>
+      </c>
+      <c r="T30" s="54" t="s">
+        <v>222</v>
+      </c>
+      <c r="U30" s="51" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A31" s="31" t="s">
         <v>16</v>
       </c>
@@ -3565,7 +3939,7 @@
         <v>121</v>
       </c>
       <c r="C31" s="30" t="s">
-        <v>248</v>
+        <v>207</v>
       </c>
       <c r="D31" s="19" t="s">
         <v>141</v>
@@ -3575,7 +3949,7 @@
       </c>
       <c r="F31" s="9"/>
       <c r="G31" s="21" t="s">
-        <v>230</v>
+        <v>278</v>
       </c>
       <c r="H31" s="25">
         <v>29</v>
@@ -3584,7 +3958,7 @@
         <v>19</v>
       </c>
       <c r="J31" s="10" t="s">
-        <v>231</v>
+        <v>195</v>
       </c>
       <c r="K31" s="44" t="s">
         <v>20</v>
@@ -3595,30 +3969,30 @@
       <c r="M31" s="49" t="s">
         <v>56</v>
       </c>
-      <c r="N31" s="57"/>
+      <c r="N31" s="48"/>
       <c r="O31" s="24" t="s">
-        <v>276</v>
+        <v>231</v>
       </c>
       <c r="P31" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="Q31" s="52">
+      <c r="Q31" s="51">
         <v>6</v>
       </c>
-      <c r="R31" s="53" t="s">
-        <v>182</v>
-      </c>
-      <c r="S31" s="52" t="s">
-        <v>183</v>
-      </c>
-      <c r="T31" s="55" t="s">
-        <v>267</v>
-      </c>
-      <c r="U31" s="52" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21" ht="105" x14ac:dyDescent="0.25">
+      <c r="R31" s="52" t="s">
+        <v>176</v>
+      </c>
+      <c r="S31" s="51" t="s">
+        <v>177</v>
+      </c>
+      <c r="T31" s="54" t="s">
+        <v>223</v>
+      </c>
+      <c r="U31" s="51" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A32" s="31" t="s">
         <v>16</v>
       </c>
@@ -3626,7 +4000,7 @@
         <v>121</v>
       </c>
       <c r="C32" s="30" t="s">
-        <v>248</v>
+        <v>207</v>
       </c>
       <c r="D32" s="19" t="s">
         <v>141</v>
@@ -3636,7 +4010,7 @@
       </c>
       <c r="F32" s="9"/>
       <c r="G32" s="21" t="s">
-        <v>224</v>
+        <v>279</v>
       </c>
       <c r="H32" s="25">
         <v>30</v>
@@ -3645,7 +4019,7 @@
         <v>20</v>
       </c>
       <c r="J32" s="10" t="s">
-        <v>225</v>
+        <v>309</v>
       </c>
       <c r="K32" s="44" t="s">
         <v>20</v>
@@ -3654,32 +4028,32 @@
         <v>8</v>
       </c>
       <c r="M32" s="49"/>
-      <c r="N32" s="57" t="s">
+      <c r="N32" s="48" t="s">
         <v>52</v>
       </c>
       <c r="O32" s="24" t="s">
-        <v>277</v>
+        <v>232</v>
       </c>
       <c r="P32" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="Q32" s="52">
+      <c r="Q32" s="51">
         <v>6</v>
       </c>
-      <c r="R32" s="53" t="s">
-        <v>170</v>
-      </c>
-      <c r="S32" s="52" t="s">
-        <v>171</v>
-      </c>
-      <c r="T32" s="55" t="s">
-        <v>181</v>
-      </c>
-      <c r="U32" s="52" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="33" spans="1:21" ht="117.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R32" s="52" t="s">
+        <v>164</v>
+      </c>
+      <c r="S32" s="51" t="s">
+        <v>165</v>
+      </c>
+      <c r="T32" s="54" t="s">
+        <v>175</v>
+      </c>
+      <c r="U32" s="51" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="31" t="s">
         <v>16</v>
       </c>
@@ -3687,7 +4061,7 @@
         <v>121</v>
       </c>
       <c r="C33" s="30" t="s">
-        <v>248</v>
+        <v>207</v>
       </c>
       <c r="D33" s="19" t="s">
         <v>144</v>
@@ -3697,7 +4071,7 @@
       </c>
       <c r="F33" s="9"/>
       <c r="G33" s="21" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H33" s="25">
         <v>31</v>
@@ -3706,7 +4080,7 @@
         <v>19</v>
       </c>
       <c r="J33" s="10" t="s">
-        <v>235</v>
+        <v>310</v>
       </c>
       <c r="K33" s="44" t="s">
         <v>19</v>
@@ -3717,30 +4091,30 @@
       <c r="M33" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="N33" s="57"/>
+      <c r="N33" s="48"/>
       <c r="O33" s="24" t="s">
-        <v>276</v>
+        <v>231</v>
       </c>
       <c r="P33" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="Q33" s="52">
+      <c r="Q33" s="51">
         <v>6</v>
       </c>
-      <c r="R33" s="53" t="s">
-        <v>182</v>
-      </c>
-      <c r="S33" s="52" t="s">
-        <v>183</v>
-      </c>
-      <c r="T33" s="55" t="s">
-        <v>184</v>
-      </c>
-      <c r="U33" s="52" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="34" spans="1:21" ht="105" x14ac:dyDescent="0.25">
+      <c r="R33" s="52" t="s">
+        <v>176</v>
+      </c>
+      <c r="S33" s="51" t="s">
+        <v>177</v>
+      </c>
+      <c r="T33" s="54" t="s">
+        <v>178</v>
+      </c>
+      <c r="U33" s="51" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="31" t="s">
         <v>16</v>
       </c>
@@ -3748,7 +4122,7 @@
         <v>121</v>
       </c>
       <c r="C34" s="30" t="s">
-        <v>248</v>
+        <v>207</v>
       </c>
       <c r="D34" s="19" t="s">
         <v>144</v>
@@ -3758,7 +4132,7 @@
       </c>
       <c r="F34" s="9"/>
       <c r="G34" s="20" t="s">
-        <v>278</v>
+        <v>233</v>
       </c>
       <c r="H34" s="25">
         <v>32</v>
@@ -3767,7 +4141,7 @@
         <v>20</v>
       </c>
       <c r="J34" s="10" t="s">
-        <v>279</v>
+        <v>311</v>
       </c>
       <c r="K34" s="44" t="s">
         <v>20</v>
@@ -3776,32 +4150,32 @@
         <v>8</v>
       </c>
       <c r="M34" s="49"/>
-      <c r="N34" s="57" t="s">
+      <c r="N34" s="48" t="s">
         <v>46</v>
       </c>
       <c r="O34" s="24" t="s">
-        <v>236</v>
+        <v>199</v>
       </c>
       <c r="P34" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="Q34" s="52">
+      <c r="Q34" s="51">
         <v>6</v>
       </c>
-      <c r="R34" s="53" t="s">
-        <v>170</v>
-      </c>
-      <c r="S34" s="52" t="s">
-        <v>171</v>
-      </c>
-      <c r="T34" s="55" t="s">
-        <v>268</v>
-      </c>
-      <c r="U34" s="52" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="35" spans="1:21" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R34" s="52" t="s">
+        <v>164</v>
+      </c>
+      <c r="S34" s="51" t="s">
+        <v>165</v>
+      </c>
+      <c r="T34" s="54" t="s">
+        <v>224</v>
+      </c>
+      <c r="U34" s="51" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" s="31" t="s">
         <v>16</v>
       </c>
@@ -3809,7 +4183,7 @@
         <v>121</v>
       </c>
       <c r="C35" s="30" t="s">
-        <v>248</v>
+        <v>207</v>
       </c>
       <c r="D35" s="19" t="s">
         <v>144</v>
@@ -3828,7 +4202,7 @@
         <v>20</v>
       </c>
       <c r="J35" s="10" t="s">
-        <v>238</v>
+        <v>312</v>
       </c>
       <c r="K35" s="44" t="s">
         <v>20</v>
@@ -3837,29 +4211,29 @@
         <v>8</v>
       </c>
       <c r="M35" s="49"/>
-      <c r="N35" s="57" t="s">
+      <c r="N35" s="48" t="s">
         <v>52</v>
       </c>
       <c r="O35" s="24" t="s">
-        <v>237</v>
+        <v>200</v>
       </c>
       <c r="P35" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="Q35" s="52">
+      <c r="Q35" s="51">
         <v>6</v>
       </c>
-      <c r="R35" s="53" t="s">
-        <v>182</v>
-      </c>
-      <c r="S35" s="52" t="s">
-        <v>269</v>
-      </c>
-      <c r="T35" s="55" t="s">
-        <v>270</v>
-      </c>
-      <c r="U35" s="52" t="s">
-        <v>271</v>
+      <c r="R35" s="52" t="s">
+        <v>176</v>
+      </c>
+      <c r="S35" s="90" t="s">
+        <v>225</v>
+      </c>
+      <c r="T35" s="54" t="s">
+        <v>226</v>
+      </c>
+      <c r="U35" s="51" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="36" spans="1:21" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3870,7 +4244,7 @@
         <v>121</v>
       </c>
       <c r="C36" s="30" t="s">
-        <v>248</v>
+        <v>207</v>
       </c>
       <c r="D36" s="19" t="s">
         <v>148</v>
@@ -3878,7 +4252,7 @@
       <c r="E36" s="8"/>
       <c r="F36" s="12"/>
       <c r="G36" s="26" t="s">
-        <v>201</v>
+        <v>281</v>
       </c>
       <c r="H36" s="25">
         <v>34</v>
@@ -3887,7 +4261,7 @@
         <v>19</v>
       </c>
       <c r="J36" s="10" t="s">
-        <v>202</v>
+        <v>182</v>
       </c>
       <c r="K36" s="44" t="s">
         <v>20</v>
@@ -3898,27 +4272,27 @@
       <c r="M36" s="49" t="s">
         <v>64</v>
       </c>
-      <c r="N36" s="57"/>
+      <c r="N36" s="48"/>
       <c r="O36" s="24" t="s">
-        <v>310</v>
+        <v>254</v>
       </c>
       <c r="P36" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="Q36" s="52">
+      <c r="Q36" s="51">
         <v>6</v>
       </c>
-      <c r="R36" s="53" t="s">
-        <v>182</v>
-      </c>
-      <c r="S36" s="52" t="s">
-        <v>183</v>
-      </c>
-      <c r="T36" s="55" t="s">
-        <v>272</v>
-      </c>
-      <c r="U36" s="52" t="s">
-        <v>185</v>
+      <c r="R36" s="52" t="s">
+        <v>176</v>
+      </c>
+      <c r="S36" s="51" t="s">
+        <v>177</v>
+      </c>
+      <c r="T36" s="54" t="s">
+        <v>228</v>
+      </c>
+      <c r="U36" s="51" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="37" spans="1:21" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3929,7 +4303,7 @@
         <v>121</v>
       </c>
       <c r="C37" s="30" t="s">
-        <v>248</v>
+        <v>207</v>
       </c>
       <c r="D37" s="19" t="s">
         <v>148</v>
@@ -3937,7 +4311,7 @@
       <c r="E37" s="8"/>
       <c r="F37" s="12"/>
       <c r="G37" s="21" t="s">
-        <v>239</v>
+        <v>282</v>
       </c>
       <c r="H37" s="25">
         <v>35</v>
@@ -3946,7 +4320,7 @@
         <v>20</v>
       </c>
       <c r="J37" s="10" t="s">
-        <v>240</v>
+        <v>201</v>
       </c>
       <c r="K37" s="44" t="s">
         <v>20</v>
@@ -3955,32 +4329,32 @@
         <v>8</v>
       </c>
       <c r="M37" s="49"/>
-      <c r="N37" s="57" t="s">
+      <c r="N37" s="48" t="s">
         <v>24</v>
       </c>
       <c r="O37" s="24" t="s">
-        <v>241</v>
+        <v>202</v>
       </c>
       <c r="P37" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="Q37" s="52">
+      <c r="Q37" s="51">
         <v>6</v>
       </c>
-      <c r="R37" s="53" t="s">
-        <v>170</v>
-      </c>
-      <c r="S37" s="52" t="s">
-        <v>171</v>
-      </c>
-      <c r="T37" s="55" t="s">
-        <v>180</v>
-      </c>
-      <c r="U37" s="52" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="38" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+      <c r="R37" s="52" t="s">
+        <v>164</v>
+      </c>
+      <c r="S37" s="51" t="s">
+        <v>165</v>
+      </c>
+      <c r="T37" s="54" t="s">
+        <v>174</v>
+      </c>
+      <c r="U37" s="51" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" s="31" t="s">
         <v>16</v>
       </c>
@@ -3988,7 +4362,7 @@
         <v>121</v>
       </c>
       <c r="C38" s="30" t="s">
-        <v>248</v>
+        <v>207</v>
       </c>
       <c r="D38" s="19" t="s">
         <v>148</v>
@@ -3996,7 +4370,7 @@
       <c r="E38" s="8"/>
       <c r="F38" s="12"/>
       <c r="G38" s="21" t="s">
-        <v>242</v>
+        <v>283</v>
       </c>
       <c r="H38" s="25">
         <v>36</v>
@@ -4005,7 +4379,7 @@
         <v>20</v>
       </c>
       <c r="J38" s="10" t="s">
-        <v>246</v>
+        <v>205</v>
       </c>
       <c r="K38" s="44" t="s">
         <v>20</v>
@@ -4014,32 +4388,32 @@
         <v>8</v>
       </c>
       <c r="M38" s="49"/>
-      <c r="N38" s="57" t="s">
+      <c r="N38" s="48" t="s">
         <v>28</v>
       </c>
       <c r="O38" s="24" t="s">
-        <v>244</v>
+        <v>204</v>
       </c>
       <c r="P38" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="Q38" s="52">
+      <c r="Q38" s="51">
         <v>6</v>
       </c>
-      <c r="R38" s="53" t="s">
-        <v>170</v>
-      </c>
-      <c r="S38" s="52" t="s">
-        <v>171</v>
-      </c>
-      <c r="T38" s="55" t="s">
-        <v>273</v>
-      </c>
-      <c r="U38" s="52" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="39" spans="1:21" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R38" s="52" t="s">
+        <v>164</v>
+      </c>
+      <c r="S38" s="51" t="s">
+        <v>165</v>
+      </c>
+      <c r="T38" s="54" t="s">
+        <v>229</v>
+      </c>
+      <c r="U38" s="51" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A39" s="31" t="s">
         <v>16</v>
       </c>
@@ -4047,7 +4421,7 @@
         <v>121</v>
       </c>
       <c r="C39" s="30" t="s">
-        <v>248</v>
+        <v>207</v>
       </c>
       <c r="D39" s="19" t="s">
         <v>148</v>
@@ -4055,7 +4429,7 @@
       <c r="E39" s="8"/>
       <c r="F39" s="12"/>
       <c r="G39" s="21" t="s">
-        <v>245</v>
+        <v>284</v>
       </c>
       <c r="H39" s="25">
         <v>37</v>
@@ -4064,7 +4438,7 @@
         <v>20</v>
       </c>
       <c r="J39" s="10" t="s">
-        <v>243</v>
+        <v>203</v>
       </c>
       <c r="K39" s="44" t="s">
         <v>20</v>
@@ -4073,29 +4447,29 @@
         <v>8</v>
       </c>
       <c r="M39" s="49"/>
-      <c r="N39" s="49" t="s">
+      <c r="N39" s="48" t="s">
         <v>45</v>
       </c>
       <c r="O39" s="27" t="s">
-        <v>247</v>
+        <v>206</v>
       </c>
       <c r="P39" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="Q39" s="52">
+      <c r="Q39" s="51">
         <v>6</v>
       </c>
-      <c r="R39" s="53" t="s">
-        <v>170</v>
-      </c>
-      <c r="S39" s="52" t="s">
-        <v>171</v>
-      </c>
-      <c r="T39" s="55" t="s">
-        <v>274</v>
-      </c>
-      <c r="U39" s="52" t="s">
-        <v>173</v>
+      <c r="R39" s="52" t="s">
+        <v>164</v>
+      </c>
+      <c r="S39" s="51" t="s">
+        <v>165</v>
+      </c>
+      <c r="T39" s="54" t="s">
+        <v>230</v>
+      </c>
+      <c r="U39" s="51" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="40" spans="1:21" ht="30" x14ac:dyDescent="0.25">
@@ -4106,7 +4480,7 @@
         <v>121</v>
       </c>
       <c r="C40" s="30" t="s">
-        <v>248</v>
+        <v>207</v>
       </c>
       <c r="D40" s="19" t="s">
         <v>149</v>
@@ -4121,7 +4495,7 @@
       </c>
       <c r="I40" s="40"/>
       <c r="J40" s="10" t="s">
-        <v>249</v>
+        <v>313</v>
       </c>
       <c r="K40" s="46" t="s">
         <v>20</v>
@@ -4129,19 +4503,19 @@
       <c r="L40" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="M40" s="50"/>
-      <c r="N40" s="50"/>
+      <c r="M40" s="49"/>
+      <c r="N40" s="48"/>
       <c r="O40" s="4"/>
       <c r="P40" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="Q40" s="52"/>
-      <c r="R40" s="53"/>
-      <c r="S40" s="52"/>
-      <c r="T40" s="55"/>
-      <c r="U40" s="52"/>
-    </row>
-    <row r="41" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+      <c r="Q40" s="51"/>
+      <c r="R40" s="52"/>
+      <c r="S40" s="51"/>
+      <c r="T40" s="54"/>
+      <c r="U40" s="51"/>
+    </row>
+    <row r="41" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="31" t="s">
         <v>16</v>
       </c>
@@ -4149,7 +4523,7 @@
         <v>121</v>
       </c>
       <c r="C41" s="30" t="s">
-        <v>248</v>
+        <v>207</v>
       </c>
       <c r="D41" s="19" t="s">
         <v>149</v>
@@ -4164,34 +4538,34 @@
       </c>
       <c r="I41" s="40"/>
       <c r="J41" s="10" t="s">
-        <v>250</v>
+        <v>314</v>
       </c>
       <c r="K41" s="46" t="s">
         <v>20</v>
       </c>
       <c r="L41" s="47"/>
-      <c r="M41" s="50"/>
-      <c r="N41" s="50" t="s">
-        <v>103</v>
+      <c r="M41" s="49"/>
+      <c r="N41" s="48" t="s">
+        <v>32</v>
       </c>
       <c r="O41" s="4"/>
       <c r="P41" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="Q41" s="52">
+      <c r="Q41" s="51">
         <v>6</v>
       </c>
-      <c r="R41" s="53" t="s">
-        <v>170</v>
-      </c>
-      <c r="S41" s="52" t="s">
-        <v>171</v>
-      </c>
-      <c r="T41" s="55" t="s">
-        <v>314</v>
-      </c>
-      <c r="U41" s="52" t="s">
-        <v>173</v>
+      <c r="R41" s="52" t="s">
+        <v>164</v>
+      </c>
+      <c r="S41" s="51" t="s">
+        <v>165</v>
+      </c>
+      <c r="T41" s="54" t="s">
+        <v>316</v>
+      </c>
+      <c r="U41" s="51" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="42" spans="1:21" ht="144.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4202,20 +4576,22 @@
         <v>121</v>
       </c>
       <c r="C42" s="30" t="s">
-        <v>248</v>
+        <v>207</v>
       </c>
       <c r="D42" s="19" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
       <c r="E42" s="13"/>
       <c r="F42" s="9"/>
-      <c r="G42" s="5"/>
+      <c r="G42" s="87" t="s">
+        <v>285</v>
+      </c>
       <c r="H42" s="35">
         <v>40</v>
       </c>
       <c r="I42" s="41"/>
       <c r="J42" s="10" t="s">
-        <v>251</v>
+        <v>315</v>
       </c>
       <c r="K42" s="46" t="s">
         <v>20</v>
@@ -4223,404 +4599,1718 @@
       <c r="L42" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="M42" s="50"/>
-      <c r="N42" s="50" t="s">
-        <v>53</v>
+      <c r="M42" s="49"/>
+      <c r="N42" s="48" t="s">
+        <v>52</v>
       </c>
       <c r="O42" s="27" t="s">
-        <v>281</v>
+        <v>234</v>
       </c>
       <c r="P42" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="Q42" s="52">
+      <c r="Q42" s="51">
         <v>6</v>
       </c>
-      <c r="R42" s="53" t="s">
-        <v>170</v>
-      </c>
-      <c r="S42" s="52" t="s">
-        <v>171</v>
-      </c>
-      <c r="T42" s="55" t="s">
-        <v>275</v>
-      </c>
-      <c r="U42" s="52" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="43" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="44" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="45" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="46" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="47" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="48" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="49" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="50" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="51" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="52" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="53" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="54" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="55" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="56" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R42" s="52" t="s">
+        <v>176</v>
+      </c>
+      <c r="S42" s="90" t="s">
+        <v>225</v>
+      </c>
+      <c r="T42" s="54" t="s">
+        <v>317</v>
+      </c>
+      <c r="U42" s="51" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="1:21" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="1:21" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="1:21" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="1:21" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="1:21" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" spans="1:1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" spans="1:1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" spans="1:1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" spans="1:1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" spans="1:1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" spans="1:1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" spans="1:1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" spans="1:1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="33" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="57" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="33" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="58" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="33" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="59" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="33" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="60" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="33" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="61" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="33" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="62" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="33" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="63" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="33" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="64" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="33" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="65" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="33" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="66" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="33" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="67" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="33" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="68" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="33" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="69" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="33" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="70" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="33" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="71" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="33" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="72" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="33" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="73" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="33" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="74" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="33" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="75" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="33" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="76" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="33" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="77" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="33" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="78" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="33" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="79" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="33" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="80" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="33" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="81" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="33" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="82" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="33" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="83" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="33" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="84" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="33" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="85" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="33" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="86" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="33" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="87" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="33" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="88" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="33" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="89" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="33" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="90" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="33" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="91" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="33" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="92" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="33" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="93" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="94" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="95" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="96" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="97" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="98" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="99" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="100" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="101" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="102" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="103" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="104" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="105" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="106" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="107" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="108" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="109" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="110" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="111" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="112" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="113" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="114" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="115" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="116" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="117" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="118" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="119" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="120" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="121" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="122" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="123" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="124" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="125" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="126" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="127" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="128" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="129" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="130" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="131" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="132" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="133" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="134" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="135" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="136" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="137" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="138" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="139" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="140" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="141" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="142" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="143" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="144" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="145" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="146" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="147" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="148" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="149" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="150" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="151" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="152" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="153" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="154" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="155" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="156" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="157" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="158" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="159" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="160" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="161" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="162" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="163" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="164" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="165" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="166" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="167" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="168" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="169" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="170" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="171" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="172" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="173" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="174" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="175" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="176" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="177" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="178" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="179" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="180" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="181" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="182" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="183" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="184" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="185" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="186" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="187" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="188" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="189" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="190" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="191" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="192" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="193" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="194" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="195" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="196" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="197" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="198" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="199" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="200" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="201" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="202" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="203" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="204" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="205" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="206" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="207" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="208" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="209" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="210" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="211" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="212" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="213" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="214" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="215" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="216" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="217" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="218" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="219" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="220" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="221" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="222" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="223" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="224" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="225" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="226" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="227" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="228" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="229" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="230" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="231" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="232" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="233" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="234" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="235" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="236" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="237" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="238" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="239" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="240" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="241" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="242" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="243" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="244" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="245" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="246" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="247" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="248" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="249" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="250" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="251" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="252" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="253" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="254" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="255" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="93" spans="1:1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" spans="1:1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" spans="1:1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" spans="1:1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="99" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="101" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="102" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="103" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="105" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="106" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="107" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="108" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="109" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="110" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="111" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="112" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="113" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="114" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="115" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="116" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="117" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="118" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="119" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="120" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="121" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="123" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="124" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="125" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="126" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="127" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="128" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="129" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="130" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="131" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="132" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="133" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="134" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="135" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="136" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="137" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="138" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="139" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="140" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="141" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="142" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="143" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="144" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="145" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="146" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="147" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="148" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="149" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="150" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="151" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="152" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="153" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="154" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="155" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="156" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="157" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="158" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="159" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="160" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="161" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="162" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="163" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="164" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="165" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="166" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="167" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="168" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="169" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="170" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="171" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="172" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="173" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="174" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="175" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="176" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="177" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="178" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="179" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="180" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="181" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="182" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="183" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="184" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="185" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="186" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="187" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="188" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="189" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="190" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="191" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="192" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="193" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="194" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="195" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="196" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="197" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="198" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="199" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="200" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="201" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="202" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="203" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="204" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="205" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="206" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="207" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="208" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="209" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="210" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="211" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="212" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="213" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="214" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="215" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="216" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="217" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="218" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="219" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="220" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="221" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="222" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="223" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="224" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="225" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="226" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="227" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="228" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="229" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="230" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="231" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="232" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="233" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="234" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="235" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="236" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="237" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="238" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="239" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="240" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="241" spans="6:11" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="242" spans="6:11" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="243" spans="6:11" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="244" spans="6:11" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="245" spans="6:11" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="246" spans="6:11" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="247" spans="6:11" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="248" spans="6:11" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="249" spans="6:11" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="250" spans="6:11" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="251" spans="6:11" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="252" spans="6:11" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="253" spans="6:11" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="254" spans="6:11" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="255" spans="6:11" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="256" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F256"/>
+      <c r="G256"/>
+      <c r="H256"/>
+      <c r="I256"/>
+      <c r="J256"/>
+      <c r="K256"/>
+    </row>
+    <row r="257" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F257"/>
+      <c r="G257"/>
+      <c r="H257"/>
+      <c r="I257"/>
+      <c r="J257"/>
+      <c r="K257"/>
+    </row>
+    <row r="258" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F258"/>
+      <c r="G258"/>
+      <c r="H258"/>
+      <c r="I258"/>
+      <c r="J258"/>
+      <c r="K258"/>
+    </row>
+    <row r="259" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F259"/>
+      <c r="G259"/>
+      <c r="H259"/>
+      <c r="I259"/>
+      <c r="J259"/>
+      <c r="K259"/>
+    </row>
+    <row r="260" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F260"/>
+      <c r="G260"/>
+      <c r="H260"/>
+      <c r="I260"/>
+      <c r="J260"/>
+      <c r="K260"/>
+    </row>
+    <row r="261" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F261"/>
+      <c r="G261"/>
+      <c r="H261"/>
+      <c r="I261"/>
+      <c r="J261"/>
+      <c r="K261"/>
+    </row>
+    <row r="262" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F262"/>
+      <c r="G262"/>
+      <c r="H262"/>
+      <c r="I262"/>
+      <c r="J262"/>
+      <c r="K262"/>
+    </row>
+    <row r="263" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F263"/>
+      <c r="G263"/>
+      <c r="H263"/>
+      <c r="I263"/>
+      <c r="J263"/>
+      <c r="K263"/>
+    </row>
+    <row r="264" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F264"/>
+      <c r="G264"/>
+      <c r="H264"/>
+      <c r="I264"/>
+      <c r="J264"/>
+      <c r="K264"/>
+    </row>
+    <row r="265" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F265"/>
+      <c r="G265"/>
+      <c r="H265"/>
+      <c r="I265"/>
+      <c r="J265"/>
+      <c r="K265"/>
+    </row>
+    <row r="266" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F266"/>
+      <c r="G266"/>
+      <c r="H266"/>
+      <c r="I266"/>
+      <c r="J266"/>
+      <c r="K266"/>
+    </row>
+    <row r="267" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F267"/>
+      <c r="G267"/>
+      <c r="H267"/>
+      <c r="I267"/>
+      <c r="J267"/>
+      <c r="K267"/>
+    </row>
+    <row r="268" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F268"/>
+      <c r="G268"/>
+      <c r="H268"/>
+      <c r="I268"/>
+      <c r="J268"/>
+      <c r="K268"/>
+    </row>
+    <row r="269" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F269"/>
+      <c r="G269"/>
+      <c r="H269"/>
+      <c r="I269"/>
+      <c r="J269"/>
+      <c r="K269"/>
+    </row>
+    <row r="270" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F270"/>
+      <c r="G270"/>
+      <c r="H270"/>
+      <c r="I270"/>
+      <c r="J270"/>
+      <c r="K270"/>
+    </row>
+    <row r="271" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F271"/>
+      <c r="G271"/>
+      <c r="H271"/>
+      <c r="I271"/>
+      <c r="J271"/>
+      <c r="K271"/>
+    </row>
+    <row r="272" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F272"/>
+      <c r="G272"/>
+      <c r="H272"/>
+      <c r="I272"/>
+      <c r="J272"/>
+      <c r="K272"/>
+    </row>
+    <row r="273" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F273"/>
+      <c r="G273"/>
+      <c r="H273"/>
+      <c r="I273"/>
+      <c r="J273"/>
+      <c r="K273"/>
+    </row>
+    <row r="274" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F274"/>
+      <c r="G274"/>
+      <c r="H274"/>
+      <c r="I274"/>
+      <c r="J274"/>
+      <c r="K274"/>
+    </row>
+    <row r="275" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F275"/>
+      <c r="G275"/>
+      <c r="H275"/>
+      <c r="I275"/>
+      <c r="J275"/>
+      <c r="K275"/>
+    </row>
+    <row r="276" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F276"/>
+      <c r="G276"/>
+      <c r="H276"/>
+      <c r="I276"/>
+      <c r="J276"/>
+      <c r="K276"/>
+    </row>
+    <row r="277" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F277"/>
+      <c r="G277"/>
+      <c r="H277"/>
+      <c r="I277"/>
+      <c r="J277"/>
+      <c r="K277"/>
+    </row>
+    <row r="278" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F278"/>
+      <c r="G278"/>
+      <c r="H278"/>
+      <c r="I278"/>
+      <c r="J278"/>
+      <c r="K278"/>
+    </row>
+    <row r="279" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F279"/>
+      <c r="G279"/>
+      <c r="H279"/>
+      <c r="I279"/>
+      <c r="J279"/>
+      <c r="K279"/>
+    </row>
+    <row r="280" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F280"/>
+      <c r="G280"/>
+      <c r="H280"/>
+      <c r="I280"/>
+      <c r="J280"/>
+      <c r="K280"/>
+    </row>
+    <row r="281" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F281"/>
+      <c r="G281"/>
+      <c r="H281"/>
+      <c r="I281"/>
+      <c r="J281"/>
+      <c r="K281"/>
+    </row>
+    <row r="282" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F282"/>
+      <c r="G282"/>
+      <c r="H282"/>
+      <c r="I282"/>
+      <c r="J282"/>
+      <c r="K282"/>
+    </row>
+    <row r="283" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F283"/>
+      <c r="G283"/>
+      <c r="H283"/>
+      <c r="I283"/>
+      <c r="J283"/>
+      <c r="K283"/>
+    </row>
+    <row r="284" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F284"/>
+      <c r="G284"/>
+      <c r="H284"/>
+      <c r="I284"/>
+      <c r="J284"/>
+      <c r="K284"/>
+    </row>
+    <row r="285" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F285"/>
+      <c r="G285"/>
+      <c r="H285"/>
+      <c r="I285"/>
+      <c r="J285"/>
+      <c r="K285"/>
+    </row>
+    <row r="286" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F286"/>
+      <c r="G286"/>
+      <c r="H286"/>
+      <c r="I286"/>
+      <c r="J286"/>
+      <c r="K286"/>
+    </row>
+    <row r="287" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F287"/>
+      <c r="G287"/>
+      <c r="H287"/>
+      <c r="I287"/>
+      <c r="J287"/>
+      <c r="K287"/>
+    </row>
+    <row r="288" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F288"/>
+      <c r="G288"/>
+      <c r="H288"/>
+      <c r="I288"/>
+      <c r="J288"/>
+      <c r="K288"/>
+    </row>
+    <row r="289" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F289"/>
+      <c r="G289"/>
+      <c r="H289"/>
+      <c r="I289"/>
+      <c r="J289"/>
+      <c r="K289"/>
+    </row>
+    <row r="290" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F290"/>
+      <c r="G290"/>
+      <c r="H290"/>
+      <c r="I290"/>
+      <c r="J290"/>
+      <c r="K290"/>
+    </row>
+    <row r="291" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F291"/>
+      <c r="G291"/>
+      <c r="H291"/>
+      <c r="I291"/>
+      <c r="J291"/>
+      <c r="K291"/>
+    </row>
+    <row r="292" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F292"/>
+      <c r="G292"/>
+      <c r="H292"/>
+      <c r="I292"/>
+      <c r="J292"/>
+      <c r="K292"/>
+    </row>
+    <row r="293" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F293"/>
+      <c r="G293"/>
+      <c r="H293"/>
+      <c r="I293"/>
+      <c r="J293"/>
+      <c r="K293"/>
+    </row>
+    <row r="294" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F294"/>
+      <c r="G294"/>
+      <c r="H294"/>
+      <c r="I294"/>
+      <c r="J294"/>
+      <c r="K294"/>
+    </row>
+    <row r="295" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F295"/>
+      <c r="G295"/>
+      <c r="H295"/>
+      <c r="I295"/>
+      <c r="J295"/>
+      <c r="K295"/>
+    </row>
+    <row r="296" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F296"/>
+      <c r="G296"/>
+      <c r="H296"/>
+      <c r="I296"/>
+      <c r="J296"/>
+      <c r="K296"/>
+    </row>
+    <row r="297" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F297"/>
+      <c r="G297"/>
+      <c r="H297"/>
+      <c r="I297"/>
+      <c r="J297"/>
+      <c r="K297"/>
+    </row>
+    <row r="298" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F298"/>
+      <c r="G298"/>
+      <c r="H298"/>
+      <c r="I298"/>
+      <c r="J298"/>
+      <c r="K298"/>
+    </row>
+    <row r="299" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F299"/>
+      <c r="G299"/>
+      <c r="H299"/>
+      <c r="I299"/>
+      <c r="J299"/>
+      <c r="K299"/>
+    </row>
+    <row r="300" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F300"/>
+      <c r="G300"/>
+      <c r="H300"/>
+      <c r="I300"/>
+      <c r="J300"/>
+      <c r="K300"/>
+    </row>
+    <row r="301" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F301"/>
+      <c r="G301"/>
+      <c r="H301"/>
+      <c r="I301"/>
+      <c r="J301"/>
+      <c r="K301"/>
+    </row>
+    <row r="302" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F302"/>
+      <c r="G302"/>
+      <c r="H302"/>
+      <c r="I302"/>
+      <c r="J302"/>
+      <c r="K302"/>
+    </row>
+    <row r="303" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F303"/>
+      <c r="G303"/>
+      <c r="H303"/>
+      <c r="I303"/>
+      <c r="J303"/>
+      <c r="K303"/>
+    </row>
+    <row r="304" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F304"/>
+      <c r="G304"/>
+      <c r="H304"/>
+      <c r="I304"/>
+      <c r="J304"/>
+      <c r="K304"/>
+    </row>
+    <row r="305" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F305"/>
+      <c r="G305"/>
+      <c r="H305"/>
+      <c r="I305"/>
+      <c r="J305"/>
+      <c r="K305"/>
+    </row>
+    <row r="306" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F306"/>
+      <c r="G306"/>
+      <c r="H306"/>
+      <c r="I306"/>
+      <c r="J306"/>
+      <c r="K306"/>
+    </row>
+    <row r="307" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F307"/>
+      <c r="G307"/>
+      <c r="H307"/>
+      <c r="I307"/>
+      <c r="J307"/>
+      <c r="K307"/>
+    </row>
+    <row r="308" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F308"/>
+      <c r="G308"/>
+      <c r="H308"/>
+      <c r="I308"/>
+      <c r="J308"/>
+      <c r="K308"/>
+    </row>
+    <row r="309" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F309"/>
+      <c r="G309"/>
+      <c r="H309"/>
+      <c r="I309"/>
+      <c r="J309"/>
+      <c r="K309"/>
+    </row>
+    <row r="310" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F310"/>
+      <c r="G310"/>
+      <c r="H310"/>
+      <c r="I310"/>
+      <c r="J310"/>
+      <c r="K310"/>
+    </row>
+    <row r="311" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F311"/>
+      <c r="G311"/>
+      <c r="H311"/>
+      <c r="I311"/>
+      <c r="J311"/>
+      <c r="K311"/>
+    </row>
+    <row r="312" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F312"/>
+      <c r="G312"/>
+      <c r="H312"/>
+      <c r="I312"/>
+      <c r="J312"/>
+      <c r="K312"/>
+    </row>
+    <row r="313" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F313"/>
+      <c r="G313"/>
+      <c r="H313"/>
+      <c r="I313"/>
+      <c r="J313"/>
+      <c r="K313"/>
+    </row>
+    <row r="314" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F314"/>
+      <c r="G314"/>
+      <c r="H314"/>
+      <c r="I314"/>
+      <c r="J314"/>
+      <c r="K314"/>
+    </row>
+    <row r="315" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F315"/>
+      <c r="G315"/>
+      <c r="H315"/>
+      <c r="I315"/>
+      <c r="J315"/>
+      <c r="K315"/>
+    </row>
+    <row r="316" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F316"/>
+      <c r="G316"/>
+      <c r="H316"/>
+      <c r="I316"/>
+      <c r="J316"/>
+      <c r="K316"/>
+    </row>
+    <row r="317" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F317"/>
+      <c r="G317"/>
+      <c r="H317"/>
+      <c r="I317"/>
+      <c r="J317"/>
+      <c r="K317"/>
+    </row>
+    <row r="318" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F318"/>
+      <c r="G318"/>
+      <c r="H318"/>
+      <c r="I318"/>
+      <c r="J318"/>
+      <c r="K318"/>
+    </row>
+    <row r="319" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F319"/>
+      <c r="G319"/>
+      <c r="H319"/>
+      <c r="I319"/>
+      <c r="J319"/>
+      <c r="K319"/>
+    </row>
+    <row r="320" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F320"/>
+      <c r="G320"/>
+      <c r="H320"/>
+      <c r="I320"/>
+      <c r="J320"/>
+      <c r="K320"/>
+    </row>
+    <row r="321" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F321"/>
+      <c r="G321"/>
+      <c r="H321"/>
+      <c r="I321"/>
+      <c r="J321"/>
+      <c r="K321"/>
+    </row>
+    <row r="322" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F322"/>
+      <c r="G322"/>
+      <c r="H322"/>
+      <c r="I322"/>
+      <c r="J322"/>
+      <c r="K322"/>
+    </row>
+    <row r="323" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F323"/>
+      <c r="G323"/>
+      <c r="H323"/>
+      <c r="I323"/>
+      <c r="J323"/>
+      <c r="K323"/>
+    </row>
+    <row r="324" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F324"/>
+      <c r="G324"/>
+      <c r="H324"/>
+      <c r="I324"/>
+      <c r="J324"/>
+      <c r="K324"/>
+    </row>
+    <row r="325" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F325"/>
+      <c r="G325"/>
+      <c r="H325"/>
+      <c r="I325"/>
+      <c r="J325"/>
+      <c r="K325"/>
+    </row>
+    <row r="326" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F326"/>
+      <c r="G326"/>
+      <c r="H326"/>
+      <c r="I326"/>
+      <c r="J326"/>
+      <c r="K326"/>
+    </row>
+    <row r="327" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F327"/>
+      <c r="G327"/>
+      <c r="H327"/>
+      <c r="I327"/>
+      <c r="J327"/>
+      <c r="K327"/>
+    </row>
+    <row r="328" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F328"/>
+      <c r="G328"/>
+      <c r="H328"/>
+      <c r="I328"/>
+      <c r="J328"/>
+      <c r="K328"/>
+    </row>
+    <row r="329" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F329"/>
+      <c r="G329"/>
+      <c r="H329"/>
+      <c r="I329"/>
+      <c r="J329"/>
+      <c r="K329"/>
+    </row>
+    <row r="330" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F330"/>
+      <c r="G330"/>
+      <c r="H330"/>
+      <c r="I330"/>
+      <c r="J330"/>
+      <c r="K330"/>
+    </row>
+    <row r="331" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F331"/>
+      <c r="G331"/>
+      <c r="H331"/>
+      <c r="I331"/>
+      <c r="J331"/>
+      <c r="K331"/>
+    </row>
+    <row r="332" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F332"/>
+      <c r="G332"/>
+      <c r="H332"/>
+      <c r="I332"/>
+      <c r="J332"/>
+      <c r="K332"/>
+    </row>
+    <row r="333" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F333"/>
+      <c r="G333"/>
+      <c r="H333"/>
+      <c r="I333"/>
+      <c r="J333"/>
+      <c r="K333"/>
+    </row>
+    <row r="334" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F334"/>
+      <c r="G334"/>
+      <c r="H334"/>
+      <c r="I334"/>
+      <c r="J334"/>
+      <c r="K334"/>
+    </row>
+    <row r="335" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F335"/>
+      <c r="G335"/>
+      <c r="H335"/>
+      <c r="I335"/>
+      <c r="J335"/>
+      <c r="K335"/>
+    </row>
+    <row r="336" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F336"/>
+      <c r="G336"/>
+      <c r="H336"/>
+      <c r="I336"/>
+      <c r="J336"/>
+      <c r="K336"/>
+    </row>
+    <row r="337" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F337"/>
+      <c r="G337"/>
+      <c r="H337"/>
+      <c r="I337"/>
+      <c r="J337"/>
+      <c r="K337"/>
+    </row>
+    <row r="338" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F338"/>
+      <c r="G338"/>
+      <c r="H338"/>
+      <c r="I338"/>
+      <c r="J338"/>
+      <c r="K338"/>
+    </row>
+    <row r="339" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F339"/>
+      <c r="G339"/>
+      <c r="H339"/>
+      <c r="I339"/>
+      <c r="J339"/>
+      <c r="K339"/>
+    </row>
+    <row r="340" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F340"/>
+      <c r="G340"/>
+      <c r="H340"/>
+      <c r="I340"/>
+      <c r="J340"/>
+      <c r="K340"/>
+    </row>
+    <row r="341" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F341"/>
+      <c r="G341"/>
+      <c r="H341"/>
+      <c r="I341"/>
+      <c r="J341"/>
+      <c r="K341"/>
+    </row>
+    <row r="342" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F342"/>
+      <c r="G342"/>
+      <c r="H342"/>
+      <c r="I342"/>
+      <c r="J342"/>
+      <c r="K342"/>
+    </row>
+    <row r="343" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F343"/>
+      <c r="G343"/>
+      <c r="H343"/>
+      <c r="I343"/>
+      <c r="J343"/>
+      <c r="K343"/>
+    </row>
+    <row r="344" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F344"/>
+      <c r="G344"/>
+      <c r="H344"/>
+      <c r="I344"/>
+      <c r="J344"/>
+      <c r="K344"/>
+    </row>
+    <row r="345" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F345"/>
+      <c r="G345"/>
+      <c r="H345"/>
+      <c r="I345"/>
+      <c r="J345"/>
+      <c r="K345"/>
+    </row>
+    <row r="346" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F346"/>
+      <c r="G346"/>
+      <c r="H346"/>
+      <c r="I346"/>
+      <c r="J346"/>
+      <c r="K346"/>
+    </row>
+    <row r="347" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F347"/>
+      <c r="G347"/>
+      <c r="H347"/>
+      <c r="I347"/>
+      <c r="J347"/>
+      <c r="K347"/>
+    </row>
+    <row r="348" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F348"/>
+      <c r="G348"/>
+      <c r="H348"/>
+      <c r="I348"/>
+      <c r="J348"/>
+      <c r="K348"/>
+    </row>
+    <row r="349" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F349"/>
+      <c r="G349"/>
+      <c r="H349"/>
+      <c r="I349"/>
+      <c r="J349"/>
+      <c r="K349"/>
+    </row>
+    <row r="350" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F350"/>
+      <c r="G350"/>
+      <c r="H350"/>
+      <c r="I350"/>
+      <c r="J350"/>
+      <c r="K350"/>
+    </row>
+    <row r="351" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F351"/>
+      <c r="G351"/>
+      <c r="H351"/>
+      <c r="I351"/>
+      <c r="J351"/>
+      <c r="K351"/>
+    </row>
+    <row r="352" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F352"/>
+      <c r="G352"/>
+      <c r="H352"/>
+      <c r="I352"/>
+      <c r="J352"/>
+      <c r="K352"/>
+    </row>
+    <row r="353" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F353"/>
+      <c r="G353"/>
+      <c r="H353"/>
+      <c r="I353"/>
+      <c r="J353"/>
+      <c r="K353"/>
+    </row>
+    <row r="354" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F354"/>
+      <c r="G354"/>
+      <c r="H354"/>
+      <c r="I354"/>
+      <c r="J354"/>
+      <c r="K354"/>
+    </row>
+    <row r="355" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F355"/>
+      <c r="G355"/>
+      <c r="H355"/>
+      <c r="I355"/>
+      <c r="J355"/>
+      <c r="K355"/>
+    </row>
+    <row r="356" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F356"/>
+      <c r="G356"/>
+      <c r="H356"/>
+      <c r="I356"/>
+      <c r="J356"/>
+      <c r="K356"/>
+    </row>
+    <row r="357" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F357"/>
+      <c r="G357"/>
+      <c r="H357"/>
+      <c r="I357"/>
+      <c r="J357"/>
+      <c r="K357"/>
+    </row>
+    <row r="358" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F358"/>
+      <c r="G358"/>
+      <c r="H358"/>
+      <c r="I358"/>
+      <c r="J358"/>
+      <c r="K358"/>
+    </row>
+    <row r="359" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F359"/>
+      <c r="G359"/>
+      <c r="H359"/>
+      <c r="I359"/>
+      <c r="J359"/>
+      <c r="K359"/>
+    </row>
+    <row r="360" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F360"/>
+      <c r="G360"/>
+      <c r="H360"/>
+      <c r="I360"/>
+      <c r="J360"/>
+      <c r="K360"/>
+    </row>
+    <row r="361" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F361"/>
+      <c r="G361"/>
+      <c r="H361"/>
+      <c r="I361"/>
+      <c r="J361"/>
+      <c r="K361"/>
+    </row>
+    <row r="362" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F362"/>
+      <c r="G362"/>
+      <c r="H362"/>
+      <c r="I362"/>
+      <c r="J362"/>
+      <c r="K362"/>
+    </row>
+    <row r="363" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F363"/>
+      <c r="G363"/>
+      <c r="H363"/>
+      <c r="I363"/>
+      <c r="J363"/>
+      <c r="K363"/>
+    </row>
+    <row r="364" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F364"/>
+      <c r="G364"/>
+      <c r="H364"/>
+      <c r="I364"/>
+      <c r="J364"/>
+      <c r="K364"/>
+    </row>
+    <row r="365" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F365"/>
+      <c r="G365"/>
+      <c r="H365"/>
+      <c r="I365"/>
+      <c r="J365"/>
+      <c r="K365"/>
+    </row>
+    <row r="366" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F366"/>
+      <c r="G366"/>
+      <c r="H366"/>
+      <c r="I366"/>
+      <c r="J366"/>
+      <c r="K366"/>
+    </row>
+    <row r="367" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F367"/>
+      <c r="G367"/>
+      <c r="H367"/>
+      <c r="I367"/>
+      <c r="J367"/>
+      <c r="K367"/>
+    </row>
+    <row r="368" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F368"/>
+      <c r="G368"/>
+      <c r="H368"/>
+      <c r="I368"/>
+      <c r="J368"/>
+      <c r="K368"/>
+    </row>
+    <row r="369" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F369"/>
+      <c r="G369"/>
+      <c r="H369"/>
+      <c r="I369"/>
+      <c r="J369"/>
+      <c r="K369"/>
+    </row>
+    <row r="370" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F370"/>
+      <c r="G370"/>
+      <c r="H370"/>
+      <c r="I370"/>
+      <c r="J370"/>
+      <c r="K370"/>
+    </row>
+    <row r="371" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F371"/>
+      <c r="G371"/>
+      <c r="H371"/>
+      <c r="I371"/>
+      <c r="J371"/>
+      <c r="K371"/>
+    </row>
+    <row r="372" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F372"/>
+      <c r="G372"/>
+      <c r="H372"/>
+      <c r="I372"/>
+      <c r="J372"/>
+      <c r="K372"/>
+    </row>
+    <row r="373" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F373"/>
+      <c r="G373"/>
+      <c r="H373"/>
+      <c r="I373"/>
+      <c r="J373"/>
+      <c r="K373"/>
+    </row>
+    <row r="374" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F374"/>
+      <c r="G374"/>
+      <c r="H374"/>
+      <c r="I374"/>
+      <c r="J374"/>
+      <c r="K374"/>
+    </row>
+    <row r="375" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F375"/>
+      <c r="G375"/>
+      <c r="H375"/>
+      <c r="I375"/>
+      <c r="J375"/>
+      <c r="K375"/>
+    </row>
+    <row r="376" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F376"/>
+      <c r="G376"/>
+      <c r="H376"/>
+      <c r="I376"/>
+      <c r="J376"/>
+      <c r="K376"/>
+    </row>
+    <row r="377" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F377"/>
+      <c r="G377"/>
+      <c r="H377"/>
+      <c r="I377"/>
+      <c r="J377"/>
+      <c r="K377"/>
+    </row>
+    <row r="378" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F378"/>
+      <c r="G378"/>
+      <c r="H378"/>
+      <c r="I378"/>
+      <c r="J378"/>
+      <c r="K378"/>
+    </row>
+    <row r="379" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F379"/>
+      <c r="G379"/>
+      <c r="H379"/>
+      <c r="I379"/>
+      <c r="J379"/>
+      <c r="K379"/>
+    </row>
+    <row r="380" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F380"/>
+      <c r="G380"/>
+      <c r="H380"/>
+      <c r="I380"/>
+      <c r="J380"/>
+      <c r="K380"/>
+    </row>
+    <row r="381" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F381"/>
+      <c r="G381"/>
+      <c r="H381"/>
+      <c r="I381"/>
+      <c r="J381"/>
+      <c r="K381"/>
+    </row>
+    <row r="382" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F382"/>
+      <c r="G382"/>
+      <c r="H382"/>
+      <c r="I382"/>
+      <c r="J382"/>
+      <c r="K382"/>
+    </row>
+    <row r="383" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F383"/>
+      <c r="G383"/>
+      <c r="H383"/>
+      <c r="I383"/>
+      <c r="J383"/>
+      <c r="K383"/>
+    </row>
+    <row r="384" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F384"/>
+      <c r="G384"/>
+      <c r="H384"/>
+      <c r="I384"/>
+      <c r="J384"/>
+      <c r="K384"/>
+    </row>
+    <row r="385" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F385"/>
+      <c r="G385"/>
+      <c r="H385"/>
+      <c r="I385"/>
+      <c r="J385"/>
+      <c r="K385"/>
+    </row>
+    <row r="386" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F386"/>
+      <c r="G386"/>
+      <c r="H386"/>
+      <c r="I386"/>
+      <c r="J386"/>
+      <c r="K386"/>
+    </row>
+    <row r="387" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F387"/>
+      <c r="G387"/>
+      <c r="H387"/>
+      <c r="I387"/>
+      <c r="J387"/>
+      <c r="K387"/>
+    </row>
+    <row r="388" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F388"/>
+      <c r="G388"/>
+      <c r="H388"/>
+      <c r="I388"/>
+      <c r="J388"/>
+      <c r="K388"/>
+    </row>
+    <row r="389" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F389"/>
+      <c r="G389"/>
+      <c r="H389"/>
+      <c r="I389"/>
+      <c r="J389"/>
+      <c r="K389"/>
+    </row>
+    <row r="390" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F390"/>
+      <c r="G390"/>
+      <c r="H390"/>
+      <c r="I390"/>
+      <c r="J390"/>
+      <c r="K390"/>
+    </row>
+    <row r="391" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F391"/>
+      <c r="G391"/>
+      <c r="H391"/>
+      <c r="I391"/>
+      <c r="J391"/>
+      <c r="K391"/>
+    </row>
+    <row r="392" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F392"/>
+      <c r="G392"/>
+      <c r="H392"/>
+      <c r="I392"/>
+      <c r="J392"/>
+      <c r="K392"/>
+    </row>
+    <row r="393" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F393"/>
+      <c r="G393"/>
+      <c r="H393"/>
+      <c r="I393"/>
+      <c r="J393"/>
+      <c r="K393"/>
+    </row>
+    <row r="394" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F394"/>
+      <c r="G394"/>
+      <c r="H394"/>
+      <c r="I394"/>
+      <c r="J394"/>
+      <c r="K394"/>
+    </row>
+    <row r="395" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F395"/>
+      <c r="G395"/>
+      <c r="H395"/>
+      <c r="I395"/>
+      <c r="J395"/>
+      <c r="K395"/>
+    </row>
+    <row r="396" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F396"/>
+      <c r="G396"/>
+      <c r="H396"/>
+      <c r="I396"/>
+      <c r="J396"/>
+      <c r="K396"/>
+    </row>
+    <row r="397" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F397"/>
+      <c r="G397"/>
+      <c r="H397"/>
+      <c r="I397"/>
+      <c r="J397"/>
+      <c r="K397"/>
+    </row>
+    <row r="398" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F398"/>
+      <c r="G398"/>
+      <c r="H398"/>
+      <c r="I398"/>
+      <c r="J398"/>
+      <c r="K398"/>
+    </row>
+    <row r="399" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F399"/>
+      <c r="G399"/>
+      <c r="H399"/>
+      <c r="I399"/>
+      <c r="J399"/>
+      <c r="K399"/>
+    </row>
+    <row r="400" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F400"/>
+      <c r="G400"/>
+      <c r="H400"/>
+      <c r="I400"/>
+      <c r="J400"/>
+      <c r="K400"/>
+    </row>
+    <row r="401" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F401"/>
+      <c r="G401"/>
+      <c r="H401"/>
+      <c r="I401"/>
+      <c r="J401"/>
+      <c r="K401"/>
+    </row>
+    <row r="402" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F402"/>
+      <c r="G402"/>
+      <c r="H402"/>
+      <c r="I402"/>
+      <c r="J402"/>
+      <c r="K402"/>
+    </row>
+    <row r="403" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F403"/>
+      <c r="G403"/>
+      <c r="H403"/>
+      <c r="I403"/>
+      <c r="J403"/>
+      <c r="K403"/>
+    </row>
+    <row r="404" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F404"/>
+      <c r="G404"/>
+      <c r="H404"/>
+      <c r="I404"/>
+      <c r="J404"/>
+      <c r="K404"/>
+    </row>
+    <row r="405" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F405"/>
+      <c r="G405"/>
+      <c r="H405"/>
+      <c r="I405"/>
+      <c r="J405"/>
+      <c r="K405"/>
+    </row>
+    <row r="406" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F406"/>
+      <c r="G406"/>
+      <c r="H406"/>
+      <c r="I406"/>
+      <c r="J406"/>
+      <c r="K406"/>
+    </row>
+    <row r="407" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F407"/>
+      <c r="G407"/>
+      <c r="H407"/>
+      <c r="I407"/>
+      <c r="J407"/>
+      <c r="K407"/>
+    </row>
+    <row r="408" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F408"/>
+      <c r="G408"/>
+      <c r="H408"/>
+      <c r="I408"/>
+      <c r="J408"/>
+      <c r="K408"/>
+    </row>
+    <row r="409" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F409"/>
+      <c r="G409"/>
+      <c r="H409"/>
+      <c r="I409"/>
+      <c r="J409"/>
+      <c r="K409"/>
+    </row>
+    <row r="410" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F410"/>
+      <c r="G410"/>
+      <c r="H410"/>
+      <c r="I410"/>
+      <c r="J410"/>
+      <c r="K410"/>
+    </row>
+    <row r="411" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F411"/>
+      <c r="G411"/>
+      <c r="H411"/>
+      <c r="I411"/>
+      <c r="J411"/>
+      <c r="K411"/>
+    </row>
+    <row r="412" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F412"/>
+      <c r="G412"/>
+      <c r="H412"/>
+      <c r="I412"/>
+      <c r="J412"/>
+      <c r="K412"/>
+    </row>
+    <row r="413" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F413"/>
+      <c r="G413"/>
+      <c r="H413"/>
+      <c r="I413"/>
+      <c r="J413"/>
+      <c r="K413"/>
+    </row>
+    <row r="414" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F414"/>
+      <c r="G414"/>
+      <c r="H414"/>
+      <c r="I414"/>
+      <c r="J414"/>
+      <c r="K414"/>
+    </row>
+    <row r="415" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F415"/>
+      <c r="G415"/>
+      <c r="H415"/>
+      <c r="I415"/>
+      <c r="J415"/>
+      <c r="K415"/>
+    </row>
+    <row r="416" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F416"/>
+      <c r="G416"/>
+      <c r="H416"/>
+      <c r="I416"/>
+      <c r="J416"/>
+      <c r="K416"/>
+    </row>
+    <row r="417" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F417"/>
+      <c r="G417"/>
+      <c r="H417"/>
+      <c r="I417"/>
+      <c r="J417"/>
+      <c r="K417"/>
+    </row>
+    <row r="418" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F418"/>
+      <c r="G418"/>
+      <c r="H418"/>
+      <c r="I418"/>
+      <c r="J418"/>
+      <c r="K418"/>
+    </row>
+    <row r="419" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F419"/>
+      <c r="G419"/>
+      <c r="H419"/>
+      <c r="I419"/>
+      <c r="J419"/>
+      <c r="K419"/>
+    </row>
+    <row r="420" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F420"/>
+      <c r="G420"/>
+      <c r="H420"/>
+      <c r="I420"/>
+      <c r="J420"/>
+      <c r="K420"/>
+    </row>
   </sheetData>
   <autoFilter ref="A1:U2">
     <filterColumn colId="12" showButton="0"/>
   </autoFilter>
   <mergeCells count="20">
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -4635,6 +6325,12 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
